--- a/data/180_D_features_case.xlsx
+++ b/data/180_D_features_case.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R79"/>
+  <dimension ref="A1:R157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4894,6 +4894,4374 @@
         <v>0.99324</v>
       </c>
     </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>1.00212334682861</v>
+      </c>
+      <c r="B80" t="n">
+        <v>18.2790288242865</v>
+      </c>
+      <c r="C80" t="n">
+        <v>-6.2680487252899e-05</v>
+      </c>
+      <c r="D80" t="n">
+        <v>0.01863225868792173</v>
+      </c>
+      <c r="E80" t="n">
+        <v>1.968225420924146e-06</v>
+      </c>
+      <c r="F80" t="n">
+        <v>-0.0001146658867325433</v>
+      </c>
+      <c r="G80" t="n">
+        <v>2.838784584626628e-06</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.0001932043684135865</v>
+      </c>
+      <c r="I80" t="n">
+        <v>-0.002141336220915648</v>
+      </c>
+      <c r="J80" t="n">
+        <v>3.513335585826211e-05</v>
+      </c>
+      <c r="K80" t="n">
+        <v>1.379983798945369e-05</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0.0008748551330471836</v>
+      </c>
+      <c r="M80" t="n">
+        <v>-8.014724616782564e-06</v>
+      </c>
+      <c r="N80" t="n">
+        <v>6.663200085201428e-06</v>
+      </c>
+      <c r="O80" t="n">
+        <v>6.022586591583591e-07</v>
+      </c>
+      <c r="P80" t="n">
+        <v>0.0001944718864783576</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>517.2150998352438</v>
+      </c>
+      <c r="R80" t="n">
+        <v>1.0068</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>1.002120231668916</v>
+      </c>
+      <c r="B81" t="n">
+        <v>18.2763203659969</v>
+      </c>
+      <c r="C81" t="n">
+        <v>-5.830373643599729e-05</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0.01942929497822168</v>
+      </c>
+      <c r="E81" t="n">
+        <v>1.97798785322031e-06</v>
+      </c>
+      <c r="F81" t="n">
+        <v>-0.0002718006319125056</v>
+      </c>
+      <c r="G81" t="n">
+        <v>3.347618333614485e-06</v>
+      </c>
+      <c r="H81" t="n">
+        <v>0.0001932679189334671</v>
+      </c>
+      <c r="I81" t="n">
+        <v>-0.00499107100187308</v>
+      </c>
+      <c r="J81" t="n">
+        <v>4.593147217380171e-05</v>
+      </c>
+      <c r="K81" t="n">
+        <v>6.110247824583256e-05</v>
+      </c>
+      <c r="L81" t="n">
+        <v>0.0008743623278727444</v>
+      </c>
+      <c r="M81" t="n">
+        <v>-5.048041717695682e-06</v>
+      </c>
+      <c r="N81" t="n">
+        <v>6.043779465582671e-06</v>
+      </c>
+      <c r="O81" t="n">
+        <v>-1.068343914247201e-05</v>
+      </c>
+      <c r="P81" t="n">
+        <v>0.0001958317704446787</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>517.1689762617754</v>
+      </c>
+      <c r="R81" t="n">
+        <v>1.0203</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>1.002114666273054</v>
+      </c>
+      <c r="B82" t="n">
+        <v>18.27106314352477</v>
+      </c>
+      <c r="C82" t="n">
+        <v>-5.073556661660603e-05</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0.01994413870533821</v>
+      </c>
+      <c r="E82" t="n">
+        <v>1.978858978935419e-06</v>
+      </c>
+      <c r="F82" t="n">
+        <v>-0.0004254082998272746</v>
+      </c>
+      <c r="G82" t="n">
+        <v>3.799775880119772e-06</v>
+      </c>
+      <c r="H82" t="n">
+        <v>0.0001939585729589541</v>
+      </c>
+      <c r="I82" t="n">
+        <v>-0.007774693095608725</v>
+      </c>
+      <c r="J82" t="n">
+        <v>5.576172859561651e-05</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0.0001092541564197229</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0.0008794096565428663</v>
+      </c>
+      <c r="M82" t="n">
+        <v>-1.999603219795727e-06</v>
+      </c>
+      <c r="N82" t="n">
+        <v>5.351848140878817e-06</v>
+      </c>
+      <c r="O82" t="n">
+        <v>-2.167263074337966e-05</v>
+      </c>
+      <c r="P82" t="n">
+        <v>0.0001992142838204363</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>517.0795866433868</v>
+      </c>
+      <c r="R82" t="n">
+        <v>1.0338</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>1.002107644511921</v>
+      </c>
+      <c r="B83" t="n">
+        <v>18.2632664817314</v>
+      </c>
+      <c r="C83" t="n">
+        <v>-4.047841144193273e-05</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0.02013729237205728</v>
+      </c>
+      <c r="E83" t="n">
+        <v>1.99238891006115e-06</v>
+      </c>
+      <c r="F83" t="n">
+        <v>-0.0005767563072794647</v>
+      </c>
+      <c r="G83" t="n">
+        <v>4.035750743111786e-06</v>
+      </c>
+      <c r="H83" t="n">
+        <v>0.000193883183919428</v>
+      </c>
+      <c r="I83" t="n">
+        <v>-0.01051635745780219</v>
+      </c>
+      <c r="J83" t="n">
+        <v>6.162887513370319e-05</v>
+      </c>
+      <c r="K83" t="n">
+        <v>0.0001576126737604494</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0.0008722016722272203</v>
+      </c>
+      <c r="M83" t="n">
+        <v>1.356617055780477e-06</v>
+      </c>
+      <c r="N83" t="n">
+        <v>4.439650008434547e-06</v>
+      </c>
+      <c r="O83" t="n">
+        <v>-2.850537024727751e-05</v>
+      </c>
+      <c r="P83" t="n">
+        <v>0.0002028360346898945</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>516.9467656247687</v>
+      </c>
+      <c r="R83" t="n">
+        <v>1.0473</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>1.002100314889789</v>
+      </c>
+      <c r="B84" t="n">
+        <v>18.25294893662218</v>
+      </c>
+      <c r="C84" t="n">
+        <v>-2.82729177943967e-05</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0.01999377719802757</v>
+      </c>
+      <c r="E84" t="n">
+        <v>2.012749744525978e-06</v>
+      </c>
+      <c r="F84" t="n">
+        <v>-0.0007271494023170546</v>
+      </c>
+      <c r="G84" t="n">
+        <v>4.018866806089746e-06</v>
+      </c>
+      <c r="H84" t="n">
+        <v>0.000194337026689971</v>
+      </c>
+      <c r="I84" t="n">
+        <v>-0.01323979799259478</v>
+      </c>
+      <c r="J84" t="n">
+        <v>6.271298551413252e-05</v>
+      </c>
+      <c r="K84" t="n">
+        <v>0.0002058169176762508</v>
+      </c>
+      <c r="L84" t="n">
+        <v>0.0008699515069725594</v>
+      </c>
+      <c r="M84" t="n">
+        <v>4.890457270448624e-06</v>
+      </c>
+      <c r="N84" t="n">
+        <v>3.289282916510471e-06</v>
+      </c>
+      <c r="O84" t="n">
+        <v>-3.362147232178738e-05</v>
+      </c>
+      <c r="P84" t="n">
+        <v>0.0002083461668909522</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>516.7703886802243</v>
+      </c>
+      <c r="R84" t="n">
+        <v>1.0608</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>1.002090955353127</v>
+      </c>
+      <c r="B85" t="n">
+        <v>18.24014641750387</v>
+      </c>
+      <c r="C85" t="n">
+        <v>-1.485200188996348e-05</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0.01952035760081603</v>
+      </c>
+      <c r="E85" t="n">
+        <v>2.038972269784638e-06</v>
+      </c>
+      <c r="F85" t="n">
+        <v>-0.0008679493477208727</v>
+      </c>
+      <c r="G85" t="n">
+        <v>3.655108385796217e-06</v>
+      </c>
+      <c r="H85" t="n">
+        <v>0.0001943322609291108</v>
+      </c>
+      <c r="I85" t="n">
+        <v>-0.01578576176978995</v>
+      </c>
+      <c r="J85" t="n">
+        <v>5.719871858224619e-05</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0.0002534897088384847</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0.0008657060948980357</v>
+      </c>
+      <c r="M85" t="n">
+        <v>8.464994563885452e-06</v>
+      </c>
+      <c r="N85" t="n">
+        <v>1.80072882343211e-06</v>
+      </c>
+      <c r="O85" t="n">
+        <v>-3.698723903063459e-05</v>
+      </c>
+      <c r="P85" t="n">
+        <v>0.0002144309797859343</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>516.5517763353142</v>
+      </c>
+      <c r="R85" t="n">
+        <v>1.0743</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>1.00207942251462</v>
+      </c>
+      <c r="B86" t="n">
+        <v>18.22490529877043</v>
+      </c>
+      <c r="C86" t="n">
+        <v>-1.176364820750051e-06</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0.01873109520027053</v>
+      </c>
+      <c r="E86" t="n">
+        <v>2.070454149867858e-06</v>
+      </c>
+      <c r="F86" t="n">
+        <v>-0.001015478812178363</v>
+      </c>
+      <c r="G86" t="n">
+        <v>2.999439865544872e-06</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0.0001938458830589763</v>
+      </c>
+      <c r="I86" t="n">
+        <v>-0.0184496016984368</v>
+      </c>
+      <c r="J86" t="n">
+        <v>4.597251733455792e-05</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0.0003002907012973272</v>
+      </c>
+      <c r="L86" t="n">
+        <v>0.0008602297372482131</v>
+      </c>
+      <c r="M86" t="n">
+        <v>1.187445760743427e-05</v>
+      </c>
+      <c r="N86" t="n">
+        <v>-4.695743032282339e-08</v>
+      </c>
+      <c r="O86" t="n">
+        <v>-4.008107120958636e-05</v>
+      </c>
+      <c r="P86" t="n">
+        <v>0.0002209950291353182</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>516.2919315193179</v>
+      </c>
+      <c r="R86" t="n">
+        <v>1.0878</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>1.002064820906433</v>
+      </c>
+      <c r="B87" t="n">
+        <v>18.20727535206428</v>
+      </c>
+      <c r="C87" t="n">
+        <v>1.159890630529326e-05</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0.0176473928484874</v>
+      </c>
+      <c r="E87" t="n">
+        <v>2.108723355798892e-06</v>
+      </c>
+      <c r="F87" t="n">
+        <v>-0.001160866320576375</v>
+      </c>
+      <c r="G87" t="n">
+        <v>2.229490374395522e-06</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0.0001939648081548177</v>
+      </c>
+      <c r="I87" t="n">
+        <v>-0.02106736066250953</v>
+      </c>
+      <c r="J87" t="n">
+        <v>3.219976029256947e-05</v>
+      </c>
+      <c r="K87" t="n">
+        <v>0.0003458761119023498</v>
+      </c>
+      <c r="L87" t="n">
+        <v>0.0008622944502158619</v>
+      </c>
+      <c r="M87" t="n">
+        <v>1.490240590185857e-05</v>
+      </c>
+      <c r="N87" t="n">
+        <v>-2.20060537835164e-06</v>
+      </c>
+      <c r="O87" t="n">
+        <v>-4.417160752590577e-05</v>
+      </c>
+      <c r="P87" t="n">
+        <v>0.0002293022215265633</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>515.9920749235399</v>
+      </c>
+      <c r="R87" t="n">
+        <v>1.1013</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>1.00204634502924</v>
+      </c>
+      <c r="B88" t="n">
+        <v>18.18736097053531</v>
+      </c>
+      <c r="C88" t="n">
+        <v>2.195748406495232e-05</v>
+      </c>
+      <c r="D88" t="n">
+        <v>0.01629963442797084</v>
+      </c>
+      <c r="E88" t="n">
+        <v>2.143281506209514e-06</v>
+      </c>
+      <c r="F88" t="n">
+        <v>-0.001304650780645524</v>
+      </c>
+      <c r="G88" t="n">
+        <v>1.620819415913178e-06</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0.0001925743181731956</v>
+      </c>
+      <c r="I88" t="n">
+        <v>-0.02364876239195968</v>
+      </c>
+      <c r="J88" t="n">
+        <v>2.07714648529265e-05</v>
+      </c>
+      <c r="K88" t="n">
+        <v>0.0003901985236136571</v>
+      </c>
+      <c r="L88" t="n">
+        <v>0.0008475138496838605</v>
+      </c>
+      <c r="M88" t="n">
+        <v>1.761207430179124e-05</v>
+      </c>
+      <c r="N88" t="n">
+        <v>-4.611955024335233e-06</v>
+      </c>
+      <c r="O88" t="n">
+        <v>-4.646080214288124e-05</v>
+      </c>
+      <c r="P88" t="n">
+        <v>0.0002377455327066152</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>515.6543120519869</v>
+      </c>
+      <c r="R88" t="n">
+        <v>1.1148</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>1.002023852901485</v>
+      </c>
+      <c r="B89" t="n">
+        <v>18.16517529802069</v>
+      </c>
+      <c r="C89" t="n">
+        <v>2.911136881154094e-05</v>
+      </c>
+      <c r="D89" t="n">
+        <v>0.01473218658317089</v>
+      </c>
+      <c r="E89" t="n">
+        <v>2.182077699457377e-06</v>
+      </c>
+      <c r="F89" t="n">
+        <v>-0.001449287027665317</v>
+      </c>
+      <c r="G89" t="n">
+        <v>1.280253138402497e-06</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0.0001919298512790367</v>
+      </c>
+      <c r="I89" t="n">
+        <v>-0.02623381016800369</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1.389280384193658e-05</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0.000433110117859999</v>
+      </c>
+      <c r="L89" t="n">
+        <v>0.0008403473749812565</v>
+      </c>
+      <c r="M89" t="n">
+        <v>1.992518627151903e-05</v>
+      </c>
+      <c r="N89" t="n">
+        <v>-7.026350233989978e-06</v>
+      </c>
+      <c r="O89" t="n">
+        <v>-4.743156244494115e-05</v>
+      </c>
+      <c r="P89" t="n">
+        <v>0.0002485342422500094</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>515.2790792032287</v>
+      </c>
+      <c r="R89" t="n">
+        <v>1.1283</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>1.002004709289249</v>
+      </c>
+      <c r="B90" t="n">
+        <v>18.1407691682911</v>
+      </c>
+      <c r="C90" t="n">
+        <v>3.342723119720573e-05</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0.01301052044490678</v>
+      </c>
+      <c r="E90" t="n">
+        <v>2.219946987300101e-06</v>
+      </c>
+      <c r="F90" t="n">
+        <v>-0.001583974447818264</v>
+      </c>
+      <c r="G90" t="n">
+        <v>1.235750972531491e-06</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0.0001905959577296134</v>
+      </c>
+      <c r="I90" t="n">
+        <v>-0.02862593472753287</v>
+      </c>
+      <c r="J90" t="n">
+        <v>1.206681790857572e-05</v>
+      </c>
+      <c r="K90" t="n">
+        <v>0.0004748505800894687</v>
+      </c>
+      <c r="L90" t="n">
+        <v>0.0008323953221060129</v>
+      </c>
+      <c r="M90" t="n">
+        <v>2.165120815861323e-05</v>
+      </c>
+      <c r="N90" t="n">
+        <v>-9.2103010614285e-06</v>
+      </c>
+      <c r="O90" t="n">
+        <v>-4.697883467745664e-05</v>
+      </c>
+      <c r="P90" t="n">
+        <v>0.0002601593201106503</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>514.8648193569857</v>
+      </c>
+      <c r="R90" t="n">
+        <v>1.1418</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>1.001985169253261</v>
+      </c>
+      <c r="B91" t="n">
+        <v>18.11419842117759</v>
+      </c>
+      <c r="C91" t="n">
+        <v>3.516703704172276e-05</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0.01119896932794928</v>
+      </c>
+      <c r="E91" t="n">
+        <v>2.253636886088619e-06</v>
+      </c>
+      <c r="F91" t="n">
+        <v>-0.001723105667735043</v>
+      </c>
+      <c r="G91" t="n">
+        <v>1.424228970029242e-06</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0.0001884905084024107</v>
+      </c>
+      <c r="I91" t="n">
+        <v>-0.03108637381603939</v>
+      </c>
+      <c r="J91" t="n">
+        <v>1.425384752774032e-05</v>
+      </c>
+      <c r="K91" t="n">
+        <v>0.000515352027147842</v>
+      </c>
+      <c r="L91" t="n">
+        <v>0.0008244062946718649</v>
+      </c>
+      <c r="M91" t="n">
+        <v>2.267204622900735e-05</v>
+      </c>
+      <c r="N91" t="n">
+        <v>-1.107614903013789e-05</v>
+      </c>
+      <c r="O91" t="n">
+        <v>-4.54186981872126e-05</v>
+      </c>
+      <c r="P91" t="n">
+        <v>0.000272127786139509</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>514.413990039071</v>
+      </c>
+      <c r="R91" t="n">
+        <v>1.1553</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>1.001960453216374</v>
+      </c>
+      <c r="B92" t="n">
+        <v>18.08549905189434</v>
+      </c>
+      <c r="C92" t="n">
+        <v>3.460271882887863e-05</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0.009360620054911249</v>
+      </c>
+      <c r="E92" t="n">
+        <v>2.281799925431849e-06</v>
+      </c>
+      <c r="F92" t="n">
+        <v>-0.001856109750972785</v>
+      </c>
+      <c r="G92" t="n">
+        <v>1.707931758732568e-06</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0.0001870610069183052</v>
+      </c>
+      <c r="I92" t="n">
+        <v>-0.03342424895054699</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1.809776430655519e-05</v>
+      </c>
+      <c r="K92" t="n">
+        <v>0.0005541632990768075</v>
+      </c>
+      <c r="L92" t="n">
+        <v>0.0008271607751115234</v>
+      </c>
+      <c r="M92" t="n">
+        <v>2.295912182130785e-05</v>
+      </c>
+      <c r="N92" t="n">
+        <v>-1.266267258044841e-05</v>
+      </c>
+      <c r="O92" t="n">
+        <v>-4.327790514869326e-05</v>
+      </c>
+      <c r="P92" t="n">
+        <v>0.0002852556697788898</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>513.928838728218</v>
+      </c>
+      <c r="R92" t="n">
+        <v>1.1688</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>1.001934564777328</v>
+      </c>
+      <c r="B93" t="n">
+        <v>18.05483230869196</v>
+      </c>
+      <c r="C93" t="n">
+        <v>3.149884063390324e-05</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0.00754760279980132</v>
+      </c>
+      <c r="E93" t="n">
+        <v>2.308107103500337e-06</v>
+      </c>
+      <c r="F93" t="n">
+        <v>-0.001984222983580747</v>
+      </c>
+      <c r="G93" t="n">
+        <v>1.907506139872924e-06</v>
+      </c>
+      <c r="H93" t="n">
+        <v>0.0001840037426321725</v>
+      </c>
+      <c r="I93" t="n">
+        <v>-0.03566270102339181</v>
+      </c>
+      <c r="J93" t="n">
+        <v>2.018220275541059e-05</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0.0005913091933354576</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0.0008100650524004099</v>
+      </c>
+      <c r="M93" t="n">
+        <v>2.261690085620986e-05</v>
+      </c>
+      <c r="N93" t="n">
+        <v>-1.415104137968274e-05</v>
+      </c>
+      <c r="O93" t="n">
+        <v>-4.403117297973833e-05</v>
+      </c>
+      <c r="P93" t="n">
+        <v>0.0002965337466583149</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>513.4109819114101</v>
+      </c>
+      <c r="R93" t="n">
+        <v>1.1822</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>1.001906660481331</v>
+      </c>
+      <c r="B94" t="n">
+        <v>18.02214364035088</v>
+      </c>
+      <c r="C94" t="n">
+        <v>2.564583820506568e-05</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0.00579285820380273</v>
+      </c>
+      <c r="E94" t="n">
+        <v>2.329536785760515e-06</v>
+      </c>
+      <c r="F94" t="n">
+        <v>-0.002113252147435898</v>
+      </c>
+      <c r="G94" t="n">
+        <v>2.063044008687581e-06</v>
+      </c>
+      <c r="H94" t="n">
+        <v>0.0001820495186902084</v>
+      </c>
+      <c r="I94" t="n">
+        <v>-0.03790826153033938</v>
+      </c>
+      <c r="J94" t="n">
+        <v>2.122204212353797e-05</v>
+      </c>
+      <c r="K94" t="n">
+        <v>0.0006261090512070776</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0.0008016397497185358</v>
+      </c>
+      <c r="M94" t="n">
+        <v>2.156586521457333e-05</v>
+      </c>
+      <c r="N94" t="n">
+        <v>-1.567526460132391e-05</v>
+      </c>
+      <c r="O94" t="n">
+        <v>-4.523025562784275e-05</v>
+      </c>
+      <c r="P94" t="n">
+        <v>0.0003085981980344223</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>512.8597148596759</v>
+      </c>
+      <c r="R94" t="n">
+        <v>1.1957</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>1.001876282051282</v>
+      </c>
+      <c r="B95" t="n">
+        <v>17.98744534725346</v>
+      </c>
+      <c r="C95" t="n">
+        <v>1.756699384434154e-05</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0.004125373376229257</v>
+      </c>
+      <c r="E95" t="n">
+        <v>2.352028785530252e-06</v>
+      </c>
+      <c r="F95" t="n">
+        <v>-0.002235716849415205</v>
+      </c>
+      <c r="G95" t="n">
+        <v>2.080662164895413e-06</v>
+      </c>
+      <c r="H95" t="n">
+        <v>0.0001801966279063161</v>
+      </c>
+      <c r="I95" t="n">
+        <v>-0.04002767654758334</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1.965786493149277e-05</v>
+      </c>
+      <c r="K95" t="n">
+        <v>0.0006588918142712551</v>
+      </c>
+      <c r="L95" t="n">
+        <v>0.0007908406795793348</v>
+      </c>
+      <c r="M95" t="n">
+        <v>2.041074737648386e-05</v>
+      </c>
+      <c r="N95" t="n">
+        <v>-1.74711338697862e-05</v>
+      </c>
+      <c r="O95" t="n">
+        <v>-4.530248049409269e-05</v>
+      </c>
+      <c r="P95" t="n">
+        <v>0.0003194833276614904</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>512.2756318102436</v>
+      </c>
+      <c r="R95" t="n">
+        <v>1.2091</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>1.001848060053981</v>
+      </c>
+      <c r="B96" t="n">
+        <v>17.95073043184885</v>
+      </c>
+      <c r="C96" t="n">
+        <v>8.138476173495508e-06</v>
+      </c>
+      <c r="D96" t="n">
+        <v>0.002573860127064902</v>
+      </c>
+      <c r="E96" t="n">
+        <v>2.380248286673415e-06</v>
+      </c>
+      <c r="F96" t="n">
+        <v>-0.002369102654071075</v>
+      </c>
+      <c r="G96" t="n">
+        <v>2.019543485152385e-06</v>
+      </c>
+      <c r="H96" t="n">
+        <v>0.0001786997469353695</v>
+      </c>
+      <c r="I96" t="n">
+        <v>-0.04233669286062378</v>
+      </c>
+      <c r="J96" t="n">
+        <v>1.673159853379432e-05</v>
+      </c>
+      <c r="K96" t="n">
+        <v>0.0006897075361123605</v>
+      </c>
+      <c r="L96" t="n">
+        <v>0.0007788643069160168</v>
+      </c>
+      <c r="M96" t="n">
+        <v>1.968197927491472e-05</v>
+      </c>
+      <c r="N96" t="n">
+        <v>-1.958870938201786e-05</v>
+      </c>
+      <c r="O96" t="n">
+        <v>-4.261547107684185e-05</v>
+      </c>
+      <c r="P96" t="n">
+        <v>0.0003289847725837472</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>511.6572681726769</v>
+      </c>
+      <c r="R96" t="n">
+        <v>1.2225</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>1.00181123060054</v>
+      </c>
+      <c r="B97" t="n">
+        <v>17.91196738953866</v>
+      </c>
+      <c r="C97" t="n">
+        <v>-1.511810275075731e-06</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0.001166690175907964</v>
+      </c>
+      <c r="E97" t="n">
+        <v>2.418067651021423e-06</v>
+      </c>
+      <c r="F97" t="n">
+        <v>-0.002504879149656996</v>
+      </c>
+      <c r="G97" t="n">
+        <v>2.073168433521707e-06</v>
+      </c>
+      <c r="H97" t="n">
+        <v>0.0001793659145516093</v>
+      </c>
+      <c r="I97" t="n">
+        <v>-0.04468195847078522</v>
+      </c>
+      <c r="J97" t="n">
+        <v>1.612339996712091e-05</v>
+      </c>
+      <c r="K97" t="n">
+        <v>0.0007182407219192031</v>
+      </c>
+      <c r="L97" t="n">
+        <v>0.0007794826116740391</v>
+      </c>
+      <c r="M97" t="n">
+        <v>1.978173804347775e-05</v>
+      </c>
+      <c r="N97" t="n">
+        <v>-2.189213032854047e-05</v>
+      </c>
+      <c r="O97" t="n">
+        <v>-3.566414253379988e-05</v>
+      </c>
+      <c r="P97" t="n">
+        <v>0.0003390525498169921</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>511.0074823125088</v>
+      </c>
+      <c r="R97" t="n">
+        <v>1.236</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>1.001778109536662</v>
+      </c>
+      <c r="B98" t="n">
+        <v>17.87129748338081</v>
+      </c>
+      <c r="C98" t="n">
+        <v>-1.073962829103567e-05</v>
+      </c>
+      <c r="D98" t="n">
+        <v>-6.661658715387144e-05</v>
+      </c>
+      <c r="E98" t="n">
+        <v>2.462431602997357e-06</v>
+      </c>
+      <c r="F98" t="n">
+        <v>-0.002641875801282051</v>
+      </c>
+      <c r="G98" t="n">
+        <v>2.3905868628908e-06</v>
+      </c>
+      <c r="H98" t="n">
+        <v>0.0001789202498233431</v>
+      </c>
+      <c r="I98" t="n">
+        <v>-0.04703416549520168</v>
+      </c>
+      <c r="J98" t="n">
+        <v>2.108032225127449e-05</v>
+      </c>
+      <c r="K98" t="n">
+        <v>0.0007450080768605987</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0.0007580969753539386</v>
+      </c>
+      <c r="M98" t="n">
+        <v>2.083124322851534e-05</v>
+      </c>
+      <c r="N98" t="n">
+        <v>-2.428765308881579e-05</v>
+      </c>
+      <c r="O98" t="n">
+        <v>-2.800855019287687e-05</v>
+      </c>
+      <c r="P98" t="n">
+        <v>0.0003464725792272236</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>510.3249353070912</v>
+      </c>
+      <c r="R98" t="n">
+        <v>1.2494</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>1.001746229757085</v>
+      </c>
+      <c r="B99" t="n">
+        <v>17.82852407907232</v>
+      </c>
+      <c r="C99" t="n">
+        <v>-1.950305008029978e-05</v>
+      </c>
+      <c r="D99" t="n">
+        <v>-0.001120115638540573</v>
+      </c>
+      <c r="E99" t="n">
+        <v>2.514522381685785e-06</v>
+      </c>
+      <c r="F99" t="n">
+        <v>-0.002781482208726946</v>
+      </c>
+      <c r="G99" t="n">
+        <v>2.914771913939497e-06</v>
+      </c>
+      <c r="H99" t="n">
+        <v>0.0001802559786382579</v>
+      </c>
+      <c r="I99" t="n">
+        <v>-0.04942006460238917</v>
+      </c>
+      <c r="J99" t="n">
+        <v>3.056769448036942e-05</v>
+      </c>
+      <c r="K99" t="n">
+        <v>0.0007693563056055378</v>
+      </c>
+      <c r="L99" t="n">
+        <v>0.0007496465588450291</v>
+      </c>
+      <c r="M99" t="n">
+        <v>2.249323497614897e-05</v>
+      </c>
+      <c r="N99" t="n">
+        <v>-2.656573185669391e-05</v>
+      </c>
+      <c r="O99" t="n">
+        <v>-1.494442105444345e-05</v>
+      </c>
+      <c r="P99" t="n">
+        <v>0.0003554610686162499</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>509.6073516597325</v>
+      </c>
+      <c r="R99" t="n">
+        <v>1.2628</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>1.001701312977958</v>
+      </c>
+      <c r="B100" t="n">
+        <v>17.78361646861098</v>
+      </c>
+      <c r="C100" t="n">
+        <v>-2.78864585035864e-05</v>
+      </c>
+      <c r="D100" t="n">
+        <v>-0.002008045362721484</v>
+      </c>
+      <c r="E100" t="n">
+        <v>2.571232318262201e-06</v>
+      </c>
+      <c r="F100" t="n">
+        <v>-0.002914829703666217</v>
+      </c>
+      <c r="G100" t="n">
+        <v>3.582566533485154e-06</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0.0001806819433708139</v>
+      </c>
+      <c r="I100" t="n">
+        <v>-0.05167755744864297</v>
+      </c>
+      <c r="J100" t="n">
+        <v>4.311166172152245e-05</v>
+      </c>
+      <c r="K100" t="n">
+        <v>0.0007915838982918479</v>
+      </c>
+      <c r="L100" t="n">
+        <v>0.0007388891039759523</v>
+      </c>
+      <c r="M100" t="n">
+        <v>2.428206366093429e-05</v>
+      </c>
+      <c r="N100" t="n">
+        <v>-2.836390530843892e-05</v>
+      </c>
+      <c r="O100" t="n">
+        <v>1.774240006638302e-06</v>
+      </c>
+      <c r="P100" t="n">
+        <v>0.0003639955280761421</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>508.8587120914405</v>
+      </c>
+      <c r="R100" t="n">
+        <v>1.2762</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>1.001666930949167</v>
+      </c>
+      <c r="B101" t="n">
+        <v>17.73657711988304</v>
+      </c>
+      <c r="C101" t="n">
+        <v>-3.574487933442091e-05</v>
+      </c>
+      <c r="D101" t="n">
+        <v>-0.002739832812220879</v>
+      </c>
+      <c r="E101" t="n">
+        <v>2.626125838367999e-06</v>
+      </c>
+      <c r="F101" t="n">
+        <v>-0.003059062418466037</v>
+      </c>
+      <c r="G101" t="n">
+        <v>4.220901618392935e-06</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0.0001796911142536987</v>
+      </c>
+      <c r="I101" t="n">
+        <v>-0.05410825309579147</v>
+      </c>
+      <c r="J101" t="n">
+        <v>5.517345275013116e-05</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0.0008118085153008947</v>
+      </c>
+      <c r="L101" t="n">
+        <v>0.0007284641648408994</v>
+      </c>
+      <c r="M101" t="n">
+        <v>2.540779505012308e-05</v>
+      </c>
+      <c r="N101" t="n">
+        <v>-2.93569154357881e-05</v>
+      </c>
+      <c r="O101" t="n">
+        <v>1.838744728229495e-05</v>
+      </c>
+      <c r="P101" t="n">
+        <v>0.0003720030063025597</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>508.0720813882957</v>
+      </c>
+      <c r="R101" t="n">
+        <v>1.2895</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>1.001622150528565</v>
+      </c>
+      <c r="B102" t="n">
+        <v>17.68743700642275</v>
+      </c>
+      <c r="C102" t="n">
+        <v>-4.281467852579737e-05</v>
+      </c>
+      <c r="D102" t="n">
+        <v>-0.003319922765882723</v>
+      </c>
+      <c r="E102" t="n">
+        <v>2.671658119666695e-06</v>
+      </c>
+      <c r="F102" t="n">
+        <v>-0.00320476597362798</v>
+      </c>
+      <c r="G102" t="n">
+        <v>4.542072837864089e-06</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0.0001795257408164986</v>
+      </c>
+      <c r="I102" t="n">
+        <v>-0.05653998651253311</v>
+      </c>
+      <c r="J102" t="n">
+        <v>6.112293348156272e-05</v>
+      </c>
+      <c r="K102" t="n">
+        <v>0.0008299042894361976</v>
+      </c>
+      <c r="L102" t="n">
+        <v>0.0007379724179609715</v>
+      </c>
+      <c r="M102" t="n">
+        <v>2.483881475668671e-05</v>
+      </c>
+      <c r="N102" t="n">
+        <v>-2.929378506246251e-05</v>
+      </c>
+      <c r="O102" t="n">
+        <v>2.973294335674701e-05</v>
+      </c>
+      <c r="P102" t="n">
+        <v>0.0003819025905005983</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>507.2543454535166</v>
+      </c>
+      <c r="R102" t="n">
+        <v>1.3029</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>1.001579889226271</v>
+      </c>
+      <c r="B103" t="n">
+        <v>17.63656467111511</v>
+      </c>
+      <c r="C103" t="n">
+        <v>-4.806144686391004e-05</v>
+      </c>
+      <c r="D103" t="n">
+        <v>-0.00372211006178931</v>
+      </c>
+      <c r="E103" t="n">
+        <v>2.717208933015632e-06</v>
+      </c>
+      <c r="F103" t="n">
+        <v>-0.003353031432748538</v>
+      </c>
+      <c r="G103" t="n">
+        <v>4.443931328666215e-06</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0.0001768776265988529</v>
+      </c>
+      <c r="I103" t="n">
+        <v>-0.0589808481094117</v>
+      </c>
+      <c r="J103" t="n">
+        <v>5.930154384621629e-05</v>
+      </c>
+      <c r="K103" t="n">
+        <v>0.0008470684198030688</v>
+      </c>
+      <c r="L103" t="n">
+        <v>0.0007111567423744502</v>
+      </c>
+      <c r="M103" t="n">
+        <v>2.188196929883916e-05</v>
+      </c>
+      <c r="N103" t="n">
+        <v>-2.812755860784662e-05</v>
+      </c>
+      <c r="O103" t="n">
+        <v>3.169714470266657e-05</v>
+      </c>
+      <c r="P103" t="n">
+        <v>0.0003888678763180075</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>506.4084656625229</v>
+      </c>
+      <c r="R103" t="n">
+        <v>1.3162</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>1.001533139338731</v>
+      </c>
+      <c r="B104" t="n">
+        <v>17.58381036949568</v>
+      </c>
+      <c r="C104" t="n">
+        <v>-5.019121295515318e-05</v>
+      </c>
+      <c r="D104" t="n">
+        <v>-0.003916438272713926</v>
+      </c>
+      <c r="E104" t="n">
+        <v>2.781055084859986e-06</v>
+      </c>
+      <c r="F104" t="n">
+        <v>-0.003504740913180387</v>
+      </c>
+      <c r="G104" t="n">
+        <v>3.886132128767433e-06</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0.0001773002213785644</v>
+      </c>
+      <c r="I104" t="n">
+        <v>-0.06145253742440145</v>
+      </c>
+      <c r="J104" t="n">
+        <v>4.965272799363969e-05</v>
+      </c>
+      <c r="K104" t="n">
+        <v>0.0008631649021280053</v>
+      </c>
+      <c r="L104" t="n">
+        <v>0.0007029992451203014</v>
+      </c>
+      <c r="M104" t="n">
+        <v>1.653221114369346e-05</v>
+      </c>
+      <c r="N104" t="n">
+        <v>-2.581695027388851e-05</v>
+      </c>
+      <c r="O104" t="n">
+        <v>3.147271707146249e-05</v>
+      </c>
+      <c r="P104" t="n">
+        <v>0.0003979809759776734</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>505.5342990455749</v>
+      </c>
+      <c r="R104" t="n">
+        <v>1.3296</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>1.001486386639676</v>
+      </c>
+      <c r="B105" t="n">
+        <v>17.529289514295</v>
+      </c>
+      <c r="C105" t="n">
+        <v>-4.842039628005167e-05</v>
+      </c>
+      <c r="D105" t="n">
+        <v>-0.003867418278296347</v>
+      </c>
+      <c r="E105" t="n">
+        <v>2.85050604011471e-06</v>
+      </c>
+      <c r="F105" t="n">
+        <v>-0.003648789482118759</v>
+      </c>
+      <c r="G105" t="n">
+        <v>2.927975892628208e-06</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0.0001781440513892638</v>
+      </c>
+      <c r="I105" t="n">
+        <v>-0.0637635145042985</v>
+      </c>
+      <c r="J105" t="n">
+        <v>3.350946134634123e-05</v>
+      </c>
+      <c r="K105" t="n">
+        <v>0.0008789440697318438</v>
+      </c>
+      <c r="L105" t="n">
+        <v>0.0006924465442807518</v>
+      </c>
+      <c r="M105" t="n">
+        <v>9.208716128027066e-06</v>
+      </c>
+      <c r="N105" t="n">
+        <v>-2.293185121782376e-05</v>
+      </c>
+      <c r="O105" t="n">
+        <v>3.021922069744339e-05</v>
+      </c>
+      <c r="P105" t="n">
+        <v>0.000405458125174111</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>504.6330557512498</v>
+      </c>
+      <c r="R105" t="n">
+        <v>1.3429</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>1.001434795321638</v>
+      </c>
+      <c r="B106" t="n">
+        <v>17.47310082096266</v>
+      </c>
+      <c r="C106" t="n">
+        <v>-4.248672532113779e-05</v>
+      </c>
+      <c r="D106" t="n">
+        <v>-0.003541524051572575</v>
+      </c>
+      <c r="E106" t="n">
+        <v>2.913437698124157e-06</v>
+      </c>
+      <c r="F106" t="n">
+        <v>-0.003800631573324336</v>
+      </c>
+      <c r="G106" t="n">
+        <v>1.779533545068605e-06</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0.0001792430872947546</v>
+      </c>
+      <c r="I106" t="n">
+        <v>-0.06619429035774979</v>
+      </c>
+      <c r="J106" t="n">
+        <v>1.43368436839294e-05</v>
+      </c>
+      <c r="K106" t="n">
+        <v>0.0008943602593779677</v>
+      </c>
+      <c r="L106" t="n">
+        <v>0.0006813417270221049</v>
+      </c>
+      <c r="M106" t="n">
+        <v>5.54832039973508e-07</v>
+      </c>
+      <c r="N106" t="n">
+        <v>-2.002310129045459e-05</v>
+      </c>
+      <c r="O106" t="n">
+        <v>2.842998276511034e-05</v>
+      </c>
+      <c r="P106" t="n">
+        <v>0.0004108833526409507</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>503.7083206616926</v>
+      </c>
+      <c r="R106" t="n">
+        <v>1.3562</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>1.001385016025641</v>
+      </c>
+      <c r="B107" t="n">
+        <v>17.41531428062678</v>
+      </c>
+      <c r="C107" t="n">
+        <v>-3.264388513191465e-05</v>
+      </c>
+      <c r="D107" t="n">
+        <v>-0.002907154765416479</v>
+      </c>
+      <c r="E107" t="n">
+        <v>2.95774724564215e-06</v>
+      </c>
+      <c r="F107" t="n">
+        <v>-0.003948880239260009</v>
+      </c>
+      <c r="G107" t="n">
+        <v>8.518180518485699e-07</v>
+      </c>
+      <c r="H107" t="n">
+        <v>0.0001835801028142025</v>
+      </c>
+      <c r="I107" t="n">
+        <v>-0.06855670937047034</v>
+      </c>
+      <c r="J107" t="n">
+        <v>-1.35166474218392e-06</v>
+      </c>
+      <c r="K107" t="n">
+        <v>0.0009084160047889489</v>
+      </c>
+      <c r="L107" t="n">
+        <v>0.0006941794766278208</v>
+      </c>
+      <c r="M107" t="n">
+        <v>-8.511927990397889e-06</v>
+      </c>
+      <c r="N107" t="n">
+        <v>-1.760575649503845e-05</v>
+      </c>
+      <c r="O107" t="n">
+        <v>2.577016734155546e-05</v>
+      </c>
+      <c r="P107" t="n">
+        <v>0.0004178869638219748</v>
+      </c>
+      <c r="Q107" t="n">
+        <v>502.7593328038664</v>
+      </c>
+      <c r="R107" t="n">
+        <v>1.3695</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>1.001330628654971</v>
+      </c>
+      <c r="B108" t="n">
+        <v>17.35639902596591</v>
+      </c>
+      <c r="C108" t="n">
+        <v>-1.898165254660837e-05</v>
+      </c>
+      <c r="D108" t="n">
+        <v>-0.001942759711048133</v>
+      </c>
+      <c r="E108" t="n">
+        <v>3.013408240576924e-06</v>
+      </c>
+      <c r="F108" t="n">
+        <v>-0.004095808462663068</v>
+      </c>
+      <c r="G108" t="n">
+        <v>8.482104906095515e-08</v>
+      </c>
+      <c r="H108" t="n">
+        <v>0.0001861085192757535</v>
+      </c>
+      <c r="I108" t="n">
+        <v>-0.07086174292122756</v>
+      </c>
+      <c r="J108" t="n">
+        <v>-1.451700176500723e-05</v>
+      </c>
+      <c r="K108" t="n">
+        <v>0.0009217607824761331</v>
+      </c>
+      <c r="L108" t="n">
+        <v>0.0006601318294710913</v>
+      </c>
+      <c r="M108" t="n">
+        <v>-1.741014756975683e-05</v>
+      </c>
+      <c r="N108" t="n">
+        <v>-1.553495599226208e-05</v>
+      </c>
+      <c r="O108" t="n">
+        <v>1.651777066161219e-05</v>
+      </c>
+      <c r="P108" t="n">
+        <v>0.0004207189734667944</v>
+      </c>
+      <c r="Q108" t="n">
+        <v>501.7962850709458</v>
+      </c>
+      <c r="R108" t="n">
+        <v>1.3827</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>1.001276743139901</v>
+      </c>
+      <c r="B109" t="n">
+        <v>17.29602926475734</v>
+      </c>
+      <c r="C109" t="n">
+        <v>-6.710844704347835e-07</v>
+      </c>
+      <c r="D109" t="n">
+        <v>-0.0006313547217020915</v>
+      </c>
+      <c r="E109" t="n">
+        <v>3.05719253939215e-06</v>
+      </c>
+      <c r="F109" t="n">
+        <v>-0.004243032073774178</v>
+      </c>
+      <c r="G109" t="n">
+        <v>-4.682353567813959e-08</v>
+      </c>
+      <c r="H109" t="n">
+        <v>0.0001926595496157595</v>
+      </c>
+      <c r="I109" t="n">
+        <v>-0.07315415120332883</v>
+      </c>
+      <c r="J109" t="n">
+        <v>-1.67943969388839e-05</v>
+      </c>
+      <c r="K109" t="n">
+        <v>0.0009329255780789222</v>
+      </c>
+      <c r="L109" t="n">
+        <v>0.0006494349321952411</v>
+      </c>
+      <c r="M109" t="n">
+        <v>-2.563033827719673e-05</v>
+      </c>
+      <c r="N109" t="n">
+        <v>-1.369579499280408e-05</v>
+      </c>
+      <c r="O109" t="n">
+        <v>4.252172819242948e-06</v>
+      </c>
+      <c r="P109" t="n">
+        <v>0.0004262417623505054</v>
+      </c>
+      <c r="Q109" t="n">
+        <v>500.8125519696032</v>
+      </c>
+      <c r="R109" t="n">
+        <v>1.396</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>1.001219933648223</v>
+      </c>
+      <c r="B110" t="n">
+        <v>17.23427330121957</v>
+      </c>
+      <c r="C110" t="n">
+        <v>2.26769596891096e-05</v>
+      </c>
+      <c r="D110" t="n">
+        <v>0.00102627879582771</v>
+      </c>
+      <c r="E110" t="n">
+        <v>3.110791021066689e-06</v>
+      </c>
+      <c r="F110" t="n">
+        <v>-0.004381944402271705</v>
+      </c>
+      <c r="G110" t="n">
+        <v>7.276388618983201e-08</v>
+      </c>
+      <c r="H110" t="n">
+        <v>0.0001996444309006379</v>
+      </c>
+      <c r="I110" t="n">
+        <v>-0.07526976484792822</v>
+      </c>
+      <c r="J110" t="n">
+        <v>-1.614739461251064e-05</v>
+      </c>
+      <c r="K110" t="n">
+        <v>0.0009429224205902934</v>
+      </c>
+      <c r="L110" t="n">
+        <v>0.0006349414383816758</v>
+      </c>
+      <c r="M110" t="n">
+        <v>-3.282520794648435e-05</v>
+      </c>
+      <c r="N110" t="n">
+        <v>-1.212161816950005e-05</v>
+      </c>
+      <c r="O110" t="n">
+        <v>-1.266510550715062e-05</v>
+      </c>
+      <c r="P110" t="n">
+        <v>0.0004298530468473658</v>
+      </c>
+      <c r="Q110" t="n">
+        <v>499.8102176124523</v>
+      </c>
+      <c r="R110" t="n">
+        <v>1.4092</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>1.001158932186235</v>
+      </c>
+      <c r="B111" t="n">
+        <v>17.17115698568001</v>
+      </c>
+      <c r="C111" t="n">
+        <v>4.986343954928231e-05</v>
+      </c>
+      <c r="D111" t="n">
+        <v>0.003013620580931049</v>
+      </c>
+      <c r="E111" t="n">
+        <v>3.174512794337607e-06</v>
+      </c>
+      <c r="F111" t="n">
+        <v>-0.004530779279127306</v>
+      </c>
+      <c r="G111" t="n">
+        <v>8.58813786268554e-08</v>
+      </c>
+      <c r="H111" t="n">
+        <v>0.0002069757876773442</v>
+      </c>
+      <c r="I111" t="n">
+        <v>-0.07751985166129356</v>
+      </c>
+      <c r="J111" t="n">
+        <v>-1.925899160762487e-05</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0.0009517890069725597</v>
+      </c>
+      <c r="L111" t="n">
+        <v>0.0006191874595281339</v>
+      </c>
+      <c r="M111" t="n">
+        <v>-3.896760148387127e-05</v>
+      </c>
+      <c r="N111" t="n">
+        <v>-1.099998706638614e-05</v>
+      </c>
+      <c r="O111" t="n">
+        <v>-3.310337652348241e-05</v>
+      </c>
+      <c r="P111" t="n">
+        <v>0.0004315416120780216</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>498.7901812220219</v>
+      </c>
+      <c r="R111" t="n">
+        <v>1.4224</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>1.001101370614035</v>
+      </c>
+      <c r="B112" t="n">
+        <v>17.10668983043435</v>
+      </c>
+      <c r="C112" t="n">
+        <v>7.797528321329736e-05</v>
+      </c>
+      <c r="D112" t="n">
+        <v>0.005298505368219561</v>
+      </c>
+      <c r="E112" t="n">
+        <v>3.226144537477086e-06</v>
+      </c>
+      <c r="F112" t="n">
+        <v>-0.00467914137848628</v>
+      </c>
+      <c r="G112" t="n">
+        <v>-3.416438948071303e-07</v>
+      </c>
+      <c r="H112" t="n">
+        <v>0.0002189433057284247</v>
+      </c>
+      <c r="I112" t="n">
+        <v>-0.07973065461463487</v>
+      </c>
+      <c r="J112" t="n">
+        <v>-3.156702921724893e-05</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0.0009583080016525468</v>
+      </c>
+      <c r="L112" t="n">
+        <v>0.0006354108439617618</v>
+      </c>
+      <c r="M112" t="n">
+        <v>-4.43599901780861e-05</v>
+      </c>
+      <c r="N112" t="n">
+        <v>-1.070854944781904e-05</v>
+      </c>
+      <c r="O112" t="n">
+        <v>-5.394590556064752e-05</v>
+      </c>
+      <c r="P112" t="n">
+        <v>0.0004368161276999331</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>497.7503419261332</v>
+      </c>
+      <c r="R112" t="n">
+        <v>1.4357</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>1.001035326698156</v>
+      </c>
+      <c r="B113" t="n">
+        <v>17.04138731131604</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0.0001019505502839628</v>
+      </c>
+      <c r="D113" t="n">
+        <v>0.007828276651771443</v>
+      </c>
+      <c r="E113" t="n">
+        <v>3.272705921758322e-06</v>
+      </c>
+      <c r="F113" t="n">
+        <v>-0.004828088824224022</v>
+      </c>
+      <c r="G113" t="n">
+        <v>-1.725903245445341e-06</v>
+      </c>
+      <c r="H113" t="n">
+        <v>0.0002283582762535925</v>
+      </c>
+      <c r="I113" t="n">
+        <v>-0.0818966754917029</v>
+      </c>
+      <c r="J113" t="n">
+        <v>-6.007862441739138e-05</v>
+      </c>
+      <c r="K113" t="n">
+        <v>0.0009637989920715247</v>
+      </c>
+      <c r="L113" t="n">
+        <v>0.0005899154147004798</v>
+      </c>
+      <c r="M113" t="n">
+        <v>-4.89666816741859e-05</v>
+      </c>
+      <c r="N113" t="n">
+        <v>-1.113029738477158e-05</v>
+      </c>
+      <c r="O113" t="n">
+        <v>-7.189258945197305e-05</v>
+      </c>
+      <c r="P113" t="n">
+        <v>0.0004380857600390175</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>496.7025636627367</v>
+      </c>
+      <c r="R113" t="n">
+        <v>1.4488</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>1.000972745164193</v>
+      </c>
+      <c r="B114" t="n">
+        <v>16.97472051969311</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0.0001177737927709678</v>
+      </c>
+      <c r="D114" t="n">
+        <v>0.0105814661617771</v>
+      </c>
+      <c r="E114" t="n">
+        <v>3.31424557464856e-06</v>
+      </c>
+      <c r="F114" t="n">
+        <v>-0.004975191753823661</v>
+      </c>
+      <c r="G114" t="n">
+        <v>-3.602384455414981e-06</v>
+      </c>
+      <c r="H114" t="n">
+        <v>0.0002430476352791992</v>
+      </c>
+      <c r="I114" t="n">
+        <v>-0.08400459411081121</v>
+      </c>
+      <c r="J114" t="n">
+        <v>-9.764540719498187e-05</v>
+      </c>
+      <c r="K114" t="n">
+        <v>0.0009657629856112859</v>
+      </c>
+      <c r="L114" t="n">
+        <v>0.0005764516930877037</v>
+      </c>
+      <c r="M114" t="n">
+        <v>-5.281998427637984e-05</v>
+      </c>
+      <c r="N114" t="n">
+        <v>-1.200581431381828e-05</v>
+      </c>
+      <c r="O114" t="n">
+        <v>-8.904463359571024e-05</v>
+      </c>
+      <c r="P114" t="n">
+        <v>0.0004442841637272267</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>495.6348549651519</v>
+      </c>
+      <c r="R114" t="n">
+        <v>1.4619</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>1.000907726045884</v>
+      </c>
+      <c r="B115" t="n">
+        <v>16.90663650534813</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0.0001251756677959594</v>
+      </c>
+      <c r="D115" t="n">
+        <v>0.01352922604676644</v>
+      </c>
+      <c r="E115" t="n">
+        <v>3.343095987637764e-06</v>
+      </c>
+      <c r="F115" t="n">
+        <v>-0.005109282664192533</v>
+      </c>
+      <c r="G115" t="n">
+        <v>-5.767285196721769e-06</v>
+      </c>
+      <c r="H115" t="n">
+        <v>0.000257148986189201</v>
+      </c>
+      <c r="I115" t="n">
+        <v>-0.08584977039286248</v>
+      </c>
+      <c r="J115" t="n">
+        <v>-0.0001393140549741966</v>
+      </c>
+      <c r="K115" t="n">
+        <v>0.000965000091842855</v>
+      </c>
+      <c r="L115" t="n">
+        <v>0.0005592441970302581</v>
+      </c>
+      <c r="M115" t="n">
+        <v>-5.523132225799096e-05</v>
+      </c>
+      <c r="N115" t="n">
+        <v>-1.27267455628655e-05</v>
+      </c>
+      <c r="O115" t="n">
+        <v>-0.0001056608671654233</v>
+      </c>
+      <c r="P115" t="n">
+        <v>0.0004486835501080872</v>
+      </c>
+      <c r="Q115" t="n">
+        <v>494.5483439246889</v>
+      </c>
+      <c r="R115" t="n">
+        <v>1.475</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>1.000837230094467</v>
+      </c>
+      <c r="B116" t="n">
+        <v>16.8371015925676</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0.0001258321647234408</v>
+      </c>
+      <c r="D116" t="n">
+        <v>0.01663570493177856</v>
+      </c>
+      <c r="E116" t="n">
+        <v>3.362636487692588e-06</v>
+      </c>
+      <c r="F116" t="n">
+        <v>-0.005247823220310392</v>
+      </c>
+      <c r="G116" t="n">
+        <v>-7.947674976945573e-06</v>
+      </c>
+      <c r="H116" t="n">
+        <v>0.0002701738437937034</v>
+      </c>
+      <c r="I116" t="n">
+        <v>-0.08773175872819512</v>
+      </c>
+      <c r="J116" t="n">
+        <v>-0.0001795318609611635</v>
+      </c>
+      <c r="K116" t="n">
+        <v>0.0009612418764838555</v>
+      </c>
+      <c r="L116" t="n">
+        <v>0.0005424824426215045</v>
+      </c>
+      <c r="M116" t="n">
+        <v>-5.569860625179625e-05</v>
+      </c>
+      <c r="N116" t="n">
+        <v>-1.298698663669278e-05</v>
+      </c>
+      <c r="O116" t="n">
+        <v>-0.0001224291442464825</v>
+      </c>
+      <c r="P116" t="n">
+        <v>0.0004499049092904046</v>
+      </c>
+      <c r="Q116" t="n">
+        <v>493.4438778667984</v>
+      </c>
+      <c r="R116" t="n">
+        <v>1.4882</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>1.000768096322537</v>
+      </c>
+      <c r="B117" t="n">
+        <v>16.76610619095817</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0.0001233523092261455</v>
+      </c>
+      <c r="D117" t="n">
+        <v>0.01985800636881701</v>
+      </c>
+      <c r="E117" t="n">
+        <v>3.387890806939384e-06</v>
+      </c>
+      <c r="F117" t="n">
+        <v>-0.005379999481837606</v>
+      </c>
+      <c r="G117" t="n">
+        <v>-9.828291115314324e-06</v>
+      </c>
+      <c r="H117" t="n">
+        <v>0.0002882851837031179</v>
+      </c>
+      <c r="I117" t="n">
+        <v>-0.08948931112391913</v>
+      </c>
+      <c r="J117" t="n">
+        <v>-0.0002126804057480663</v>
+      </c>
+      <c r="K117" t="n">
+        <v>0.0009528649944082072</v>
+      </c>
+      <c r="L117" t="n">
+        <v>0.0005670988856420331</v>
+      </c>
+      <c r="M117" t="n">
+        <v>-5.372875529804411e-05</v>
+      </c>
+      <c r="N117" t="n">
+        <v>-1.274642000411028e-05</v>
+      </c>
+      <c r="O117" t="n">
+        <v>-0.0001392350834253636</v>
+      </c>
+      <c r="P117" t="n">
+        <v>0.0004533642222337728</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>492.3200476069786</v>
+      </c>
+      <c r="R117" t="n">
+        <v>1.5013</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>1.00069762145749</v>
+      </c>
+      <c r="B118" t="n">
+        <v>16.69434316739141</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0.0001201948645442846</v>
+      </c>
+      <c r="D118" t="n">
+        <v>0.02310154006556767</v>
+      </c>
+      <c r="E118" t="n">
+        <v>3.384542282444895e-06</v>
+      </c>
+      <c r="F118" t="n">
+        <v>-0.005509224732905982</v>
+      </c>
+      <c r="G118" t="n">
+        <v>-1.130406488886078e-05</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0.0003005131612726171</v>
+      </c>
+      <c r="I118" t="n">
+        <v>-0.09113447668316088</v>
+      </c>
+      <c r="J118" t="n">
+        <v>-0.000238025075205225</v>
+      </c>
+      <c r="K118" t="n">
+        <v>0.0009429028321025141</v>
+      </c>
+      <c r="L118" t="n">
+        <v>0.0005123522378658984</v>
+      </c>
+      <c r="M118" t="n">
+        <v>-5.11450001623994e-05</v>
+      </c>
+      <c r="N118" t="n">
+        <v>-1.164740142603214e-05</v>
+      </c>
+      <c r="O118" t="n">
+        <v>-0.0001569638900662893</v>
+      </c>
+      <c r="P118" t="n">
+        <v>0.0004484854475305206</v>
+      </c>
+      <c r="Q118" t="n">
+        <v>491.1889863906931</v>
+      </c>
+      <c r="R118" t="n">
+        <v>1.5143</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>1.000626408569501</v>
+      </c>
+      <c r="B119" t="n">
+        <v>16.62118403871145</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0.0001162635440611411</v>
+      </c>
+      <c r="D119" t="n">
+        <v>0.02630662514650185</v>
+      </c>
+      <c r="E119" t="n">
+        <v>3.357061095130454e-06</v>
+      </c>
+      <c r="F119" t="n">
+        <v>-0.005641239797008547</v>
+      </c>
+      <c r="G119" t="n">
+        <v>-1.213905087522492e-05</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0.0003186521565279027</v>
+      </c>
+      <c r="I119" t="n">
+        <v>-0.09281582961588444</v>
+      </c>
+      <c r="J119" t="n">
+        <v>-0.0002523953609453879</v>
+      </c>
+      <c r="K119" t="n">
+        <v>0.0009281806668447294</v>
+      </c>
+      <c r="L119" t="n">
+        <v>0.0004972419225184309</v>
+      </c>
+      <c r="M119" t="n">
+        <v>-4.847768492660538e-05</v>
+      </c>
+      <c r="N119" t="n">
+        <v>-9.975075569487087e-06</v>
+      </c>
+      <c r="O119" t="n">
+        <v>-0.0001720460075001718</v>
+      </c>
+      <c r="P119" t="n">
+        <v>0.0004471740622017449</v>
+      </c>
+      <c r="Q119" t="n">
+        <v>490.0409709709369</v>
+      </c>
+      <c r="R119" t="n">
+        <v>1.5273</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>1.000551575292397</v>
+      </c>
+      <c r="B120" t="n">
+        <v>16.54655731431499</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0.0001103562693822789</v>
+      </c>
+      <c r="D120" t="n">
+        <v>0.02940583345638886</v>
+      </c>
+      <c r="E120" t="n">
+        <v>3.319679567268894e-06</v>
+      </c>
+      <c r="F120" t="n">
+        <v>-0.005767680257534863</v>
+      </c>
+      <c r="G120" t="n">
+        <v>-1.22403220589125e-05</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0.0003355040769791369</v>
+      </c>
+      <c r="I120" t="n">
+        <v>-0.09436635755610535</v>
+      </c>
+      <c r="J120" t="n">
+        <v>-0.0002550264069958329</v>
+      </c>
+      <c r="K120" t="n">
+        <v>0.0009109747446909207</v>
+      </c>
+      <c r="L120" t="n">
+        <v>0.0004731173022868403</v>
+      </c>
+      <c r="M120" t="n">
+        <v>-4.677302520236666e-05</v>
+      </c>
+      <c r="N120" t="n">
+        <v>-8.496368719416954e-06</v>
+      </c>
+      <c r="O120" t="n">
+        <v>-0.0001844031996609</v>
+      </c>
+      <c r="P120" t="n">
+        <v>0.0004412818364731406</v>
+      </c>
+      <c r="Q120" t="n">
+        <v>488.8759461014157</v>
+      </c>
+      <c r="R120" t="n">
+        <v>1.5403</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>1.000472634109312</v>
+      </c>
+      <c r="B121" t="n">
+        <v>16.4703738222872</v>
+      </c>
+      <c r="C121" t="n">
+        <v>0.0001019737532769778</v>
+      </c>
+      <c r="D121" t="n">
+        <v>0.03238352845400672</v>
+      </c>
+      <c r="E121" t="n">
+        <v>3.287260847843849e-06</v>
+      </c>
+      <c r="F121" t="n">
+        <v>-0.005908454130116959</v>
+      </c>
+      <c r="G121" t="n">
+        <v>-1.143666103938934e-05</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0.0003510080933565127</v>
+      </c>
+      <c r="I121" t="n">
+        <v>-0.09611622635202677</v>
+      </c>
+      <c r="J121" t="n">
+        <v>-0.0002434362823324336</v>
+      </c>
+      <c r="K121" t="n">
+        <v>0.0008920586161876156</v>
+      </c>
+      <c r="L121" t="n">
+        <v>0.0004524640391642612</v>
+      </c>
+      <c r="M121" t="n">
+        <v>-4.534986810196588e-05</v>
+      </c>
+      <c r="N121" t="n">
+        <v>-7.166915012870492e-06</v>
+      </c>
+      <c r="O121" t="n">
+        <v>-0.0001955040610545684</v>
+      </c>
+      <c r="P121" t="n">
+        <v>0.0004303775847718923</v>
+      </c>
+      <c r="Q121" t="n">
+        <v>487.6929208719649</v>
+      </c>
+      <c r="R121" t="n">
+        <v>1.5533</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>1.000396693094917</v>
+      </c>
+      <c r="B122" t="n">
+        <v>16.39253159050582</v>
+      </c>
+      <c r="C122" t="n">
+        <v>9.139784963309708e-05</v>
+      </c>
+      <c r="D122" t="n">
+        <v>0.03527580584493084</v>
+      </c>
+      <c r="E122" t="n">
+        <v>3.268343966188147e-06</v>
+      </c>
+      <c r="F122" t="n">
+        <v>-0.00605257623722166</v>
+      </c>
+      <c r="G122" t="n">
+        <v>-9.50620490016307e-06</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0.0003746399161287846</v>
+      </c>
+      <c r="I122" t="n">
+        <v>-0.09791179150219299</v>
+      </c>
+      <c r="J122" t="n">
+        <v>-0.0002144076118175471</v>
+      </c>
+      <c r="K122" t="n">
+        <v>0.0008701989459729719</v>
+      </c>
+      <c r="L122" t="n">
+        <v>0.0004992472571173722</v>
+      </c>
+      <c r="M122" t="n">
+        <v>-4.198587881250156e-05</v>
+      </c>
+      <c r="N122" t="n">
+        <v>-5.146200868735005e-06</v>
+      </c>
+      <c r="O122" t="n">
+        <v>-0.0002068834687745219</v>
+      </c>
+      <c r="P122" t="n">
+        <v>0.000423258981238215</v>
+      </c>
+      <c r="Q122" t="n">
+        <v>486.4889546526472</v>
+      </c>
+      <c r="R122" t="n">
+        <v>1.5663</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>1.000319017375169</v>
+      </c>
+      <c r="B123" t="n">
+        <v>16.31380641775378</v>
+      </c>
+      <c r="C123" t="n">
+        <v>8.037717865934442e-05</v>
+      </c>
+      <c r="D123" t="n">
+        <v>0.03807534212046409</v>
+      </c>
+      <c r="E123" t="n">
+        <v>3.244790023223123e-06</v>
+      </c>
+      <c r="F123" t="n">
+        <v>-0.006195226509784076</v>
+      </c>
+      <c r="G123" t="n">
+        <v>-6.464355608018443e-06</v>
+      </c>
+      <c r="H123" t="n">
+        <v>0.0003912930192074181</v>
+      </c>
+      <c r="I123" t="n">
+        <v>-0.09958351608187134</v>
+      </c>
+      <c r="J123" t="n">
+        <v>-0.0001648009169103313</v>
+      </c>
+      <c r="K123" t="n">
+        <v>0.0008494901774789761</v>
+      </c>
+      <c r="L123" t="n">
+        <v>0.0004267639571721304</v>
+      </c>
+      <c r="M123" t="n">
+        <v>-3.386651857998138e-05</v>
+      </c>
+      <c r="N123" t="n">
+        <v>-2.66308556041479e-06</v>
+      </c>
+      <c r="O123" t="n">
+        <v>-0.0002289677300373307</v>
+      </c>
+      <c r="P123" t="n">
+        <v>0.0004040165185582546</v>
+      </c>
+      <c r="Q123" t="n">
+        <v>485.2778689587263</v>
+      </c>
+      <c r="R123" t="n">
+        <v>1.5792</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>1.000237374325236</v>
+      </c>
+      <c r="B124" t="n">
+        <v>16.23338014507422</v>
+      </c>
+      <c r="C124" t="n">
+        <v>7.171765728869959e-05</v>
+      </c>
+      <c r="D124" t="n">
+        <v>0.04076129450696474</v>
+      </c>
+      <c r="E124" t="n">
+        <v>3.172855882732513e-06</v>
+      </c>
+      <c r="F124" t="n">
+        <v>-0.006342812238529015</v>
+      </c>
+      <c r="G124" t="n">
+        <v>-3.092951466531715e-06</v>
+      </c>
+      <c r="H124" t="n">
+        <v>0.0004177510686118452</v>
+      </c>
+      <c r="I124" t="n">
+        <v>-0.1013320016119358</v>
+      </c>
+      <c r="J124" t="n">
+        <v>-0.0001091214373203753</v>
+      </c>
+      <c r="K124" t="n">
+        <v>0.0008236995865016305</v>
+      </c>
+      <c r="L124" t="n">
+        <v>0.0004191074817337525</v>
+      </c>
+      <c r="M124" t="n">
+        <v>-2.078186063457478e-05</v>
+      </c>
+      <c r="N124" t="n">
+        <v>3.911839873231826e-08</v>
+      </c>
+      <c r="O124" t="n">
+        <v>-0.0002613350016969061</v>
+      </c>
+      <c r="P124" t="n">
+        <v>0.0003867920087066246</v>
+      </c>
+      <c r="Q124" t="n">
+        <v>484.0477683112729</v>
+      </c>
+      <c r="R124" t="n">
+        <v>1.5921</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>1.000154378654971</v>
+      </c>
+      <c r="B125" t="n">
+        <v>16.15110278589994</v>
+      </c>
+      <c r="C125" t="n">
+        <v>6.508179266225556e-05</v>
+      </c>
+      <c r="D125" t="n">
+        <v>0.04317345778611392</v>
+      </c>
+      <c r="E125" t="n">
+        <v>3.064994811563765e-06</v>
+      </c>
+      <c r="F125" t="n">
+        <v>-0.0064925252642825</v>
+      </c>
+      <c r="G125" t="n">
+        <v>-4.544975642431393e-07</v>
+      </c>
+      <c r="H125" t="n">
+        <v>0.0004420884740237792</v>
+      </c>
+      <c r="I125" t="n">
+        <v>-0.1030627041472985</v>
+      </c>
+      <c r="J125" t="n">
+        <v>-6.189032784993992e-05</v>
+      </c>
+      <c r="K125" t="n">
+        <v>0.000795927030411231</v>
+      </c>
+      <c r="L125" t="n">
+        <v>0.0003992800112443878</v>
+      </c>
+      <c r="M125" t="n">
+        <v>-2.756576875018744e-06</v>
+      </c>
+      <c r="N125" t="n">
+        <v>2.546877516644175e-06</v>
+      </c>
+      <c r="O125" t="n">
+        <v>-0.0002959120956013833</v>
+      </c>
+      <c r="P125" t="n">
+        <v>0.0003607494694891163</v>
+      </c>
+      <c r="Q125" t="n">
+        <v>482.7964197010509</v>
+      </c>
+      <c r="R125" t="n">
+        <v>1.605</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>1.000070695287899</v>
+      </c>
+      <c r="B126" t="n">
+        <v>16.0667069963013</v>
+      </c>
+      <c r="C126" t="n">
+        <v>5.946492847503403e-05</v>
+      </c>
+      <c r="D126" t="n">
+        <v>0.04515045707611554</v>
+      </c>
+      <c r="E126" t="n">
+        <v>2.924853617867184e-06</v>
+      </c>
+      <c r="F126" t="n">
+        <v>-0.006672451431061628</v>
+      </c>
+      <c r="G126" t="n">
+        <v>9.064549366565461e-07</v>
+      </c>
+      <c r="H126" t="n">
+        <v>0.0004634548400503246</v>
+      </c>
+      <c r="I126" t="n">
+        <v>-0.1052307051906833</v>
+      </c>
+      <c r="J126" t="n">
+        <v>-3.225369319613144e-05</v>
+      </c>
+      <c r="K126" t="n">
+        <v>0.0007667883985899154</v>
+      </c>
+      <c r="L126" t="n">
+        <v>0.0003811430637775794</v>
+      </c>
+      <c r="M126" t="n">
+        <v>1.875097096767694e-05</v>
+      </c>
+      <c r="N126" t="n">
+        <v>4.600463726430122e-06</v>
+      </c>
+      <c r="O126" t="n">
+        <v>-0.0003238522027965212</v>
+      </c>
+      <c r="P126" t="n">
+        <v>0.0003245998824336638</v>
+      </c>
+      <c r="Q126" t="n">
+        <v>481.519739701595</v>
+      </c>
+      <c r="R126" t="n">
+        <v>1.6179</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>0.9999830034019341</v>
+      </c>
+      <c r="B127" t="n">
+        <v>15.97981833701954</v>
+      </c>
+      <c r="C127" t="n">
+        <v>5.351366465799502e-05</v>
+      </c>
+      <c r="D127" t="n">
+        <v>0.046529913298047</v>
+      </c>
+      <c r="E127" t="n">
+        <v>2.74173378578357e-06</v>
+      </c>
+      <c r="F127" t="n">
+        <v>-0.006875247552237966</v>
+      </c>
+      <c r="G127" t="n">
+        <v>9.387688645032041e-07</v>
+      </c>
+      <c r="H127" t="n">
+        <v>0.0004950705759850615</v>
+      </c>
+      <c r="I127" t="n">
+        <v>-0.1077711400392128</v>
+      </c>
+      <c r="J127" t="n">
+        <v>-2.297542213498711e-05</v>
+      </c>
+      <c r="K127" t="n">
+        <v>0.0007332724630272921</v>
+      </c>
+      <c r="L127" t="n">
+        <v>0.0004545373644056689</v>
+      </c>
+      <c r="M127" t="n">
+        <v>4.090532877693588e-05</v>
+      </c>
+      <c r="N127" t="n">
+        <v>5.752212410796845e-06</v>
+      </c>
+      <c r="O127" t="n">
+        <v>-0.000335980366446197</v>
+      </c>
+      <c r="P127" t="n">
+        <v>0.0002896272802227423</v>
+      </c>
+      <c r="Q127" t="n">
+        <v>480.2131416443935</v>
+      </c>
+      <c r="R127" t="n">
+        <v>1.6308</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>0.9998925295209178</v>
+      </c>
+      <c r="B128" t="n">
+        <v>15.89108660406358</v>
+      </c>
+      <c r="C128" t="n">
+        <v>4.742293851839402e-05</v>
+      </c>
+      <c r="D128" t="n">
+        <v>0.04725378122132253</v>
+      </c>
+      <c r="E128" t="n">
+        <v>2.593080711957659e-06</v>
+      </c>
+      <c r="F128" t="n">
+        <v>-0.007104990901934323</v>
+      </c>
+      <c r="G128" t="n">
+        <v>5.854065044421982e-07</v>
+      </c>
+      <c r="H128" t="n">
+        <v>0.0005151381689185659</v>
+      </c>
+      <c r="I128" t="n">
+        <v>-0.1105473726383266</v>
+      </c>
+      <c r="J128" t="n">
+        <v>-2.122957652306056e-05</v>
+      </c>
+      <c r="K128" t="n">
+        <v>0.0007044541430811713</v>
+      </c>
+      <c r="L128" t="n">
+        <v>0.0003640932784977289</v>
+      </c>
+      <c r="M128" t="n">
+        <v>6.078458757765342e-05</v>
+      </c>
+      <c r="N128" t="n">
+        <v>6.380761871735518e-06</v>
+      </c>
+      <c r="O128" t="n">
+        <v>-0.0003165165281122545</v>
+      </c>
+      <c r="P128" t="n">
+        <v>0.0002337840092760659</v>
+      </c>
+      <c r="Q128" t="n">
+        <v>478.8862334819042</v>
+      </c>
+      <c r="R128" t="n">
+        <v>1.6435</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>0.999800991340531</v>
+      </c>
+      <c r="B129" t="n">
+        <v>15.79922138189134</v>
+      </c>
+      <c r="C129" t="n">
+        <v>4.820914775765991e-05</v>
+      </c>
+      <c r="D129" t="n">
+        <v>0.04735392454043271</v>
+      </c>
+      <c r="E129" t="n">
+        <v>2.42069608583727e-06</v>
+      </c>
+      <c r="F129" t="n">
+        <v>-0.007351862440958165</v>
+      </c>
+      <c r="G129" t="n">
+        <v>3.319399126743142e-07</v>
+      </c>
+      <c r="H129" t="n">
+        <v>0.0005496779472104294</v>
+      </c>
+      <c r="I129" t="n">
+        <v>-0.1135803901446994</v>
+      </c>
+      <c r="J129" t="n">
+        <v>-1.892406709682871e-05</v>
+      </c>
+      <c r="K129" t="n">
+        <v>0.000672595125961996</v>
+      </c>
+      <c r="L129" t="n">
+        <v>0.0003708254753212251</v>
+      </c>
+      <c r="M129" t="n">
+        <v>7.785480466983431e-05</v>
+      </c>
+      <c r="N129" t="n">
+        <v>5.627429826748132e-06</v>
+      </c>
+      <c r="O129" t="n">
+        <v>-0.0002891592493349983</v>
+      </c>
+      <c r="P129" t="n">
+        <v>0.000179264253259531</v>
+      </c>
+      <c r="Q129" t="n">
+        <v>477.5196716708068</v>
+      </c>
+      <c r="R129" t="n">
+        <v>1.6562</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>0.9997067855937922</v>
+      </c>
+      <c r="B130" t="n">
+        <v>15.70389187221972</v>
+      </c>
+      <c r="C130" t="n">
+        <v>6.233828647968473e-05</v>
+      </c>
+      <c r="D130" t="n">
+        <v>0.04690175138181792</v>
+      </c>
+      <c r="E130" t="n">
+        <v>2.220628244857175e-06</v>
+      </c>
+      <c r="F130" t="n">
+        <v>-0.007611211493477283</v>
+      </c>
+      <c r="G130" t="n">
+        <v>3.700600517881248e-07</v>
+      </c>
+      <c r="H130" t="n">
+        <v>0.0005812564741351777</v>
+      </c>
+      <c r="I130" t="n">
+        <v>-0.1167120040798221</v>
+      </c>
+      <c r="J130" t="n">
+        <v>-1.414720297161616e-05</v>
+      </c>
+      <c r="K130" t="n">
+        <v>0.0006438155475626343</v>
+      </c>
+      <c r="L130" t="n">
+        <v>0.0003607350791960549</v>
+      </c>
+      <c r="M130" t="n">
+        <v>9.068161844663742e-05</v>
+      </c>
+      <c r="N130" t="n">
+        <v>3.63539180069788e-06</v>
+      </c>
+      <c r="O130" t="n">
+        <v>-0.0002641734398304968</v>
+      </c>
+      <c r="P130" t="n">
+        <v>0.0001090783317806424</v>
+      </c>
+      <c r="Q130" t="n">
+        <v>476.109642147118</v>
+      </c>
+      <c r="R130" t="n">
+        <v>1.669</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>0.9996078472222223</v>
+      </c>
+      <c r="B131" t="n">
+        <v>15.60464879479682</v>
+      </c>
+      <c r="C131" t="n">
+        <v>9.032980361873416e-05</v>
+      </c>
+      <c r="D131" t="n">
+        <v>0.04596759451453085</v>
+      </c>
+      <c r="E131" t="n">
+        <v>1.970601505474021e-06</v>
+      </c>
+      <c r="F131" t="n">
+        <v>-0.007913818437921728</v>
+      </c>
+      <c r="G131" t="n">
+        <v>7.580107707771e-07</v>
+      </c>
+      <c r="H131" t="n">
+        <v>0.0006091184028262296</v>
+      </c>
+      <c r="I131" t="n">
+        <v>-0.1204457895986405</v>
+      </c>
+      <c r="J131" t="n">
+        <v>-3.367385101558219e-06</v>
+      </c>
+      <c r="K131" t="n">
+        <v>0.0006178340746905926</v>
+      </c>
+      <c r="L131" t="n">
+        <v>0.0003546873391696343</v>
+      </c>
+      <c r="M131" t="n">
+        <v>0.0001008505237700524</v>
+      </c>
+      <c r="N131" t="n">
+        <v>5.28589448817912e-07</v>
+      </c>
+      <c r="O131" t="n">
+        <v>-0.0002514366720655583</v>
+      </c>
+      <c r="P131" t="n">
+        <v>2.341238299376468e-05</v>
+      </c>
+      <c r="Q131" t="n">
+        <v>474.6506283612408</v>
+      </c>
+      <c r="R131" t="n">
+        <v>1.6817</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>0.9995042593061179</v>
+      </c>
+      <c r="B132" t="n">
+        <v>15.50090339474933</v>
+      </c>
+      <c r="C132" t="n">
+        <v>0.0001263182948061928</v>
+      </c>
+      <c r="D132" t="n">
+        <v>0.04462088766266416</v>
+      </c>
+      <c r="E132" t="n">
+        <v>1.641240850386583e-06</v>
+      </c>
+      <c r="F132" t="n">
+        <v>-0.008250949731133323</v>
+      </c>
+      <c r="G132" t="n">
+        <v>1.429894627472731e-06</v>
+      </c>
+      <c r="H132" t="n">
+        <v>0.0006536419455782953</v>
+      </c>
+      <c r="I132" t="n">
+        <v>-0.1247889074443164</v>
+      </c>
+      <c r="J132" t="n">
+        <v>1.538646866456116e-05</v>
+      </c>
+      <c r="K132" t="n">
+        <v>0.0005868445198385643</v>
+      </c>
+      <c r="L132" t="n">
+        <v>0.0004796446905681996</v>
+      </c>
+      <c r="M132" t="n">
+        <v>0.0001112661238824849</v>
+      </c>
+      <c r="N132" t="n">
+        <v>-3.235402119961138e-06</v>
+      </c>
+      <c r="O132" t="n">
+        <v>-0.0002599049466255405</v>
+      </c>
+      <c r="P132" t="n">
+        <v>-5.612683121727708e-05</v>
+      </c>
+      <c r="Q132" t="n">
+        <v>473.13481807536</v>
+      </c>
+      <c r="R132" t="n">
+        <v>1.6944</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>0.9993988883265859</v>
+      </c>
+      <c r="B133" t="n">
+        <v>15.39338679899535</v>
+      </c>
+      <c r="C133" t="n">
+        <v>0.0001538146152596591</v>
+      </c>
+      <c r="D133" t="n">
+        <v>0.04292663703439734</v>
+      </c>
+      <c r="E133" t="n">
+        <v>1.40049695919928e-06</v>
+      </c>
+      <c r="F133" t="n">
+        <v>-0.008616987983580746</v>
+      </c>
+      <c r="G133" t="n">
+        <v>2.539890722700177e-06</v>
+      </c>
+      <c r="H133" t="n">
+        <v>0.0006842645131042681</v>
+      </c>
+      <c r="I133" t="n">
+        <v>-0.1291379510921178</v>
+      </c>
+      <c r="J133" t="n">
+        <v>4.335145960007742e-05</v>
+      </c>
+      <c r="K133" t="n">
+        <v>0.0005628114993557256</v>
+      </c>
+      <c r="L133" t="n">
+        <v>0.0003650352639482119</v>
+      </c>
+      <c r="M133" t="n">
+        <v>0.0001206853121538712</v>
+      </c>
+      <c r="N133" t="n">
+        <v>-7.326305527612208e-06</v>
+      </c>
+      <c r="O133" t="n">
+        <v>-0.0002834389378498775</v>
+      </c>
+      <c r="P133" t="n">
+        <v>-0.0001625486983768962</v>
+      </c>
+      <c r="Q133" t="n">
+        <v>471.5729691974769</v>
+      </c>
+      <c r="R133" t="n">
+        <v>1.707</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>0.999288074111561</v>
+      </c>
+      <c r="B134" t="n">
+        <v>15.28024989691108</v>
+      </c>
+      <c r="C134" t="n">
+        <v>0.0001591796912330688</v>
+      </c>
+      <c r="D134" t="n">
+        <v>0.04091410615490203</v>
+      </c>
+      <c r="E134" t="n">
+        <v>1.170400880260346e-06</v>
+      </c>
+      <c r="F134" t="n">
+        <v>-0.008997631393387315</v>
+      </c>
+      <c r="G134" t="n">
+        <v>2.463804729054211e-06</v>
+      </c>
+      <c r="H134" t="n">
+        <v>0.0007384677982060341</v>
+      </c>
+      <c r="I134" t="n">
+        <v>-0.1337296183835658</v>
+      </c>
+      <c r="J134" t="n">
+        <v>5.071676307901607e-05</v>
+      </c>
+      <c r="K134" t="n">
+        <v>0.0005308818789217212</v>
+      </c>
+      <c r="L134" t="n">
+        <v>0.0003883901596285207</v>
+      </c>
+      <c r="M134" t="n">
+        <v>0.0001260649406135509</v>
+      </c>
+      <c r="N134" t="n">
+        <v>-1.26214808490622e-05</v>
+      </c>
+      <c r="O134" t="n">
+        <v>-0.0002917654088151647</v>
+      </c>
+      <c r="P134" t="n">
+        <v>-0.0002635550267164617</v>
+      </c>
+      <c r="Q134" t="n">
+        <v>469.9405326533463</v>
+      </c>
+      <c r="R134" t="n">
+        <v>1.7196</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>0.999172405814215</v>
+      </c>
+      <c r="B135" t="n">
+        <v>15.16078425676013</v>
+      </c>
+      <c r="C135" t="n">
+        <v>0.0001431410364028836</v>
+      </c>
+      <c r="D135" t="n">
+        <v>0.03861452422188016</v>
+      </c>
+      <c r="E135" t="n">
+        <v>9.214792782388667e-07</v>
+      </c>
+      <c r="F135" t="n">
+        <v>-0.009399177285762483</v>
+      </c>
+      <c r="G135" t="n">
+        <v>4.359479034525383e-07</v>
+      </c>
+      <c r="H135" t="n">
+        <v>0.0007872039161257623</v>
+      </c>
+      <c r="I135" t="n">
+        <v>-0.1384568807167491</v>
+      </c>
+      <c r="J135" t="n">
+        <v>3.403837938284108e-05</v>
+      </c>
+      <c r="K135" t="n">
+        <v>0.0004996428546520125</v>
+      </c>
+      <c r="L135" t="n">
+        <v>0.0003834814324434573</v>
+      </c>
+      <c r="M135" t="n">
+        <v>0.0001283687262900172</v>
+      </c>
+      <c r="N135" t="n">
+        <v>-1.803496816912393e-05</v>
+      </c>
+      <c r="O135" t="n">
+        <v>-0.0002935251405486829</v>
+      </c>
+      <c r="P135" t="n">
+        <v>-0.0003851892082907545</v>
+      </c>
+      <c r="Q135" t="n">
+        <v>468.2288741157366</v>
+      </c>
+      <c r="R135" t="n">
+        <v>1.7322</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>0.9990513132591092</v>
+      </c>
+      <c r="B136" t="n">
+        <v>15.03397448393063</v>
+      </c>
+      <c r="C136" t="n">
+        <v>0.0001163995669109565</v>
+      </c>
+      <c r="D136" t="n">
+        <v>0.03606723832553606</v>
+      </c>
+      <c r="E136" t="n">
+        <v>6.075198132619212e-07</v>
+      </c>
+      <c r="F136" t="n">
+        <v>-0.009867423813540261</v>
+      </c>
+      <c r="G136" t="n">
+        <v>-3.578740115525195e-06</v>
+      </c>
+      <c r="H136" t="n">
+        <v>0.0008264997064938366</v>
+      </c>
+      <c r="I136" t="n">
+        <v>-0.1440142614147548</v>
+      </c>
+      <c r="J136" t="n">
+        <v>-6.823769500518499e-06</v>
+      </c>
+      <c r="K136" t="n">
+        <v>0.0004709972649262915</v>
+      </c>
+      <c r="L136" t="n">
+        <v>0.0003856303120188715</v>
+      </c>
+      <c r="M136" t="n">
+        <v>0.0001274376997275953</v>
+      </c>
+      <c r="N136" t="n">
+        <v>-2.288573471206952e-05</v>
+      </c>
+      <c r="O136" t="n">
+        <v>-0.0002927078196196956</v>
+      </c>
+      <c r="P136" t="n">
+        <v>-0.0005308865274271193</v>
+      </c>
+      <c r="Q136" t="n">
+        <v>466.4254397583096</v>
+      </c>
+      <c r="R136" t="n">
+        <v>1.7448</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>0.9989236060503824</v>
+      </c>
+      <c r="B137" t="n">
+        <v>14.89848016475483</v>
+      </c>
+      <c r="C137" t="n">
+        <v>9.883299626872739e-05</v>
+      </c>
+      <c r="D137" t="n">
+        <v>0.03331957159981506</v>
+      </c>
+      <c r="E137" t="n">
+        <v>1.569501061220751e-07</v>
+      </c>
+      <c r="F137" t="n">
+        <v>-0.01040346779617353</v>
+      </c>
+      <c r="G137" t="n">
+        <v>-8.928954524642935e-06</v>
+      </c>
+      <c r="H137" t="n">
+        <v>0.0008873089978212312</v>
+      </c>
+      <c r="I137" t="n">
+        <v>-0.150705862918049</v>
+      </c>
+      <c r="J137" t="n">
+        <v>-6.879451803782727e-05</v>
+      </c>
+      <c r="K137" t="n">
+        <v>0.0004363927817080819</v>
+      </c>
+      <c r="L137" t="n">
+        <v>0.0006027695504434151</v>
+      </c>
+      <c r="M137" t="n">
+        <v>0.0001202782035039845</v>
+      </c>
+      <c r="N137" t="n">
+        <v>-2.660102529895787e-05</v>
+      </c>
+      <c r="O137" t="n">
+        <v>-0.0002986730610307095</v>
+      </c>
+      <c r="P137" t="n">
+        <v>-0.0006745752537564586</v>
+      </c>
+      <c r="Q137" t="n">
+        <v>464.5137852749449</v>
+      </c>
+      <c r="R137" t="n">
+        <v>1.7573</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>0.9987910855263158</v>
+      </c>
+      <c r="B138" t="n">
+        <v>14.75477537549358</v>
+      </c>
+      <c r="C138" t="n">
+        <v>0.0001081923943635354</v>
+      </c>
+      <c r="D138" t="n">
+        <v>0.03042721223069894</v>
+      </c>
+      <c r="E138" t="n">
+        <v>-1.031167097896981e-07</v>
+      </c>
+      <c r="F138" t="n">
+        <v>-0.01100426359086819</v>
+      </c>
+      <c r="G138" t="n">
+        <v>-1.348886347137878e-05</v>
+      </c>
+      <c r="H138" t="n">
+        <v>0.0009177943618399186</v>
+      </c>
+      <c r="I138" t="n">
+        <v>-0.1575781037574349</v>
+      </c>
+      <c r="J138" t="n">
+        <v>-0.0001198006212200729</v>
+      </c>
+      <c r="K138" t="n">
+        <v>0.0004139099594803694</v>
+      </c>
+      <c r="L138" t="n">
+        <v>0.0004267995754984193</v>
+      </c>
+      <c r="M138" t="n">
+        <v>0.0001087502795795846</v>
+      </c>
+      <c r="N138" t="n">
+        <v>-2.870435508545446e-05</v>
+      </c>
+      <c r="O138" t="n">
+        <v>-0.0003116999345480488</v>
+      </c>
+      <c r="P138" t="n">
+        <v>-0.0008676460257086738</v>
+      </c>
+      <c r="Q138" t="n">
+        <v>462.5023527377082</v>
+      </c>
+      <c r="R138" t="n">
+        <v>1.7698</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>0.9986503022379668</v>
+      </c>
+      <c r="B139" t="n">
+        <v>14.59932507997201</v>
+      </c>
+      <c r="C139" t="n">
+        <v>0.0001491870694499112</v>
+      </c>
+      <c r="D139" t="n">
+        <v>0.02739045338559629</v>
+      </c>
+      <c r="E139" t="n">
+        <v>-3.161191361392264e-07</v>
+      </c>
+      <c r="F139" t="n">
+        <v>-0.01169210434660369</v>
+      </c>
+      <c r="G139" t="n">
+        <v>-1.572734475571862e-05</v>
+      </c>
+      <c r="H139" t="n">
+        <v>0.0009825359012150434</v>
+      </c>
+      <c r="I139" t="n">
+        <v>-0.1657282374606387</v>
+      </c>
+      <c r="J139" t="n">
+        <v>-0.0001396200533172765</v>
+      </c>
+      <c r="K139" t="n">
+        <v>0.0003784482063792359</v>
+      </c>
+      <c r="L139" t="n">
+        <v>0.000465446492840787</v>
+      </c>
+      <c r="M139" t="n">
+        <v>8.94886146543241e-05</v>
+      </c>
+      <c r="N139" t="n">
+        <v>-3.018777622847628e-05</v>
+      </c>
+      <c r="O139" t="n">
+        <v>-0.000300117667304256</v>
+      </c>
+      <c r="P139" t="n">
+        <v>-0.001062028180916585</v>
+      </c>
+      <c r="Q139" t="n">
+        <v>460.3462903315468</v>
+      </c>
+      <c r="R139" t="n">
+        <v>1.7822</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>0.9985003705578046</v>
+      </c>
+      <c r="B140" t="n">
+        <v>14.42991955940421</v>
+      </c>
+      <c r="C140" t="n">
+        <v>0.0002229843292457016</v>
+      </c>
+      <c r="D140" t="n">
+        <v>0.024278176628488</v>
+      </c>
+      <c r="E140" t="n">
+        <v>-4.550926131874156e-07</v>
+      </c>
+      <c r="F140" t="n">
+        <v>-0.01249794430386865</v>
+      </c>
+      <c r="G140" t="n">
+        <v>-1.547015123978014e-05</v>
+      </c>
+      <c r="H140" t="n">
+        <v>0.001034148324076417</v>
+      </c>
+      <c r="I140" t="n">
+        <v>-0.1751524114997251</v>
+      </c>
+      <c r="J140" t="n">
+        <v>-0.0001205034124975009</v>
+      </c>
+      <c r="K140" t="n">
+        <v>0.0003489454404130585</v>
+      </c>
+      <c r="L140" t="n">
+        <v>0.0004681060970234636</v>
+      </c>
+      <c r="M140" t="n">
+        <v>6.538397369053644e-05</v>
+      </c>
+      <c r="N140" t="n">
+        <v>-2.968742591959377e-05</v>
+      </c>
+      <c r="O140" t="n">
+        <v>-0.000284095596329316</v>
+      </c>
+      <c r="P140" t="n">
+        <v>-0.00129345597896455</v>
+      </c>
+      <c r="Q140" t="n">
+        <v>458.0203145695698</v>
+      </c>
+      <c r="R140" t="n">
+        <v>1.7946</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>0.9983392467948718</v>
+      </c>
+      <c r="B141" t="n">
+        <v>14.2435998494277</v>
+      </c>
+      <c r="C141" t="n">
+        <v>0.0003241085539579896</v>
+      </c>
+      <c r="D141" t="n">
+        <v>0.02113865041772192</v>
+      </c>
+      <c r="E141" t="n">
+        <v>-6.254095405434385e-07</v>
+      </c>
+      <c r="F141" t="n">
+        <v>-0.01349744199280252</v>
+      </c>
+      <c r="G141" t="n">
+        <v>-1.350753893221435e-05</v>
+      </c>
+      <c r="H141" t="n">
+        <v>0.001065350846792533</v>
+      </c>
+      <c r="I141" t="n">
+        <v>-0.1868804691795372</v>
+      </c>
+      <c r="J141" t="n">
+        <v>-7.627692723484258e-05</v>
+      </c>
+      <c r="K141" t="n">
+        <v>0.0003289890796610561</v>
+      </c>
+      <c r="L141" t="n">
+        <v>0.0004673367201422159</v>
+      </c>
+      <c r="M141" t="n">
+        <v>3.903946307831321e-05</v>
+      </c>
+      <c r="N141" t="n">
+        <v>-2.774405954976695e-05</v>
+      </c>
+      <c r="O141" t="n">
+        <v>-0.0002664306168432299</v>
+      </c>
+      <c r="P141" t="n">
+        <v>-0.001563829851006476</v>
+      </c>
+      <c r="Q141" t="n">
+        <v>455.4909519620313</v>
+      </c>
+      <c r="R141" t="n">
+        <v>1.807</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>0.9981640824617632</v>
+      </c>
+      <c r="B142" t="n">
+        <v>14.03666447993202</v>
+      </c>
+      <c r="C142" t="n">
+        <v>0.0004411736852218913</v>
+      </c>
+      <c r="D142" t="n">
+        <v>0.01799936422734231</v>
+      </c>
+      <c r="E142" t="n">
+        <v>-1.039809247111168e-06</v>
+      </c>
+      <c r="F142" t="n">
+        <v>-0.01471721520045968</v>
+      </c>
+      <c r="G142" t="n">
+        <v>-1.158482345973908e-05</v>
+      </c>
+      <c r="H142" t="n">
+        <v>0.00112594472952255</v>
+      </c>
+      <c r="I142" t="n">
+        <v>-0.2018675593955397</v>
+      </c>
+      <c r="J142" t="n">
+        <v>-2.948131346341278e-05</v>
+      </c>
+      <c r="K142" t="n">
+        <v>0.0003039279237420652</v>
+      </c>
+      <c r="L142" t="n">
+        <v>0.0008392364641803651</v>
+      </c>
+      <c r="M142" t="n">
+        <v>1.281760068036735e-05</v>
+      </c>
+      <c r="N142" t="n">
+        <v>-2.575715352404752e-05</v>
+      </c>
+      <c r="O142" t="n">
+        <v>-0.0002522868708755991</v>
+      </c>
+      <c r="P142" t="n">
+        <v>-0.001833517884370446</v>
+      </c>
+      <c r="Q142" t="n">
+        <v>452.7171448827815</v>
+      </c>
+      <c r="R142" t="n">
+        <v>1.8194</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>0.9979759949955016</v>
+      </c>
+      <c r="B143" t="n">
+        <v>13.80823075985905</v>
+      </c>
+      <c r="C143" t="n">
+        <v>0.000557666297734855</v>
+      </c>
+      <c r="D143" t="n">
+        <v>0.01494186819345885</v>
+      </c>
+      <c r="E143" t="n">
+        <v>-1.189246491891588e-06</v>
+      </c>
+      <c r="F143" t="n">
+        <v>-0.01612053289473684</v>
+      </c>
+      <c r="G143" t="n">
+        <v>-9.735426059126164e-06</v>
+      </c>
+      <c r="H143" t="n">
+        <v>0.001143092540526941</v>
+      </c>
+      <c r="I143" t="n">
+        <v>-0.217650121519968</v>
+      </c>
+      <c r="J143" t="n">
+        <v>-1.558359271129978e-06</v>
+      </c>
+      <c r="K143" t="n">
+        <v>0.0002992401377262333</v>
+      </c>
+      <c r="L143" t="n">
+        <v>0.0005553388035976002</v>
+      </c>
+      <c r="M143" t="n">
+        <v>-1.328538452888365e-05</v>
+      </c>
+      <c r="N143" t="n">
+        <v>-1.929381460563333e-05</v>
+      </c>
+      <c r="O143" t="n">
+        <v>-0.0002429472836024579</v>
+      </c>
+      <c r="P143" t="n">
+        <v>-0.002182495088230478</v>
+      </c>
+      <c r="Q143" t="n">
+        <v>449.6943994862606</v>
+      </c>
+      <c r="R143" t="n">
+        <v>1.8316</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>0.9977688644286999</v>
+      </c>
+      <c r="B144" t="n">
+        <v>13.54985750299895</v>
+      </c>
+      <c r="C144" t="n">
+        <v>0.0006640711746716768</v>
+      </c>
+      <c r="D144" t="n">
+        <v>0.01199799247343898</v>
+      </c>
+      <c r="E144" t="n">
+        <v>-1.125478838147773e-06</v>
+      </c>
+      <c r="F144" t="n">
+        <v>-0.01778685155195681</v>
+      </c>
+      <c r="G144" t="n">
+        <v>-8.374980625449844e-06</v>
+      </c>
+      <c r="H144" t="n">
+        <v>0.001208443807098765</v>
+      </c>
+      <c r="I144" t="n">
+        <v>-0.2368070287899235</v>
+      </c>
+      <c r="J144" t="n">
+        <v>1.143648994883033e-05</v>
+      </c>
+      <c r="K144" t="n">
+        <v>0.0002833568527351521</v>
+      </c>
+      <c r="L144" t="n">
+        <v>0.00061128457112495</v>
+      </c>
+      <c r="M144" t="n">
+        <v>-3.681936335292023e-05</v>
+      </c>
+      <c r="N144" t="n">
+        <v>-1.586368677787775e-05</v>
+      </c>
+      <c r="O144" t="n">
+        <v>-0.0002491073927522242</v>
+      </c>
+      <c r="P144" t="n">
+        <v>-0.002537707095924598</v>
+      </c>
+      <c r="Q144" t="n">
+        <v>446.3268882412577</v>
+      </c>
+      <c r="R144" t="n">
+        <v>1.8439</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>0.9975394298245615</v>
+      </c>
+      <c r="B145" t="n">
+        <v>13.25420791785375</v>
+      </c>
+      <c r="C145" t="n">
+        <v>0.0007543921078560003</v>
+      </c>
+      <c r="D145" t="n">
+        <v>0.009324430595182311</v>
+      </c>
+      <c r="E145" t="n">
+        <v>-9.25479248658907e-07</v>
+      </c>
+      <c r="F145" t="n">
+        <v>-0.01978965691070625</v>
+      </c>
+      <c r="G145" t="n">
+        <v>-7.532920875787222e-06</v>
+      </c>
+      <c r="H145" t="n">
+        <v>0.001245878716640957</v>
+      </c>
+      <c r="I145" t="n">
+        <v>-0.2591493196131354</v>
+      </c>
+      <c r="J145" t="n">
+        <v>9.809530773604408e-06</v>
+      </c>
+      <c r="K145" t="n">
+        <v>0.0002780610475979813</v>
+      </c>
+      <c r="L145" t="n">
+        <v>0.0006094190009693482</v>
+      </c>
+      <c r="M145" t="n">
+        <v>-5.802581644600951e-05</v>
+      </c>
+      <c r="N145" t="n">
+        <v>-1.305457890066602e-05</v>
+      </c>
+      <c r="O145" t="n">
+        <v>-0.0003048140547216286</v>
+      </c>
+      <c r="P145" t="n">
+        <v>-0.00295037959592427</v>
+      </c>
+      <c r="Q145" t="n">
+        <v>442.5376260418851</v>
+      </c>
+      <c r="R145" t="n">
+        <v>1.8561</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>0.9972828255735492</v>
+      </c>
+      <c r="B146" t="n">
+        <v>12.91108672901984</v>
+      </c>
+      <c r="C146" t="n">
+        <v>0.0008308524126555705</v>
+      </c>
+      <c r="D146" t="n">
+        <v>0.007124410435519443</v>
+      </c>
+      <c r="E146" t="n">
+        <v>-7.584893918381691e-07</v>
+      </c>
+      <c r="F146" t="n">
+        <v>-0.02225147815452092</v>
+      </c>
+      <c r="G146" t="n">
+        <v>-6.701040512089522e-06</v>
+      </c>
+      <c r="H146" t="n">
+        <v>0.001241755616822799</v>
+      </c>
+      <c r="I146" t="n">
+        <v>-0.2858400311453491</v>
+      </c>
+      <c r="J146" t="n">
+        <v>8.986826887151988e-06</v>
+      </c>
+      <c r="K146" t="n">
+        <v>0.0002844068146311291</v>
+      </c>
+      <c r="L146" t="n">
+        <v>0.0005220975505054793</v>
+      </c>
+      <c r="M146" t="n">
+        <v>-7.440639622514931e-05</v>
+      </c>
+      <c r="N146" t="n">
+        <v>-1.036053117487004e-05</v>
+      </c>
+      <c r="O146" t="n">
+        <v>-0.0004130535405171784</v>
+      </c>
+      <c r="P146" t="n">
+        <v>-0.003418674681304356</v>
+      </c>
+      <c r="Q146" t="n">
+        <v>438.2255635179607</v>
+      </c>
+      <c r="R146" t="n">
+        <v>1.8683</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>0.9969927656882589</v>
+      </c>
+      <c r="B147" t="n">
+        <v>12.50745341474234</v>
+      </c>
+      <c r="C147" t="n">
+        <v>0.0009187440469374781</v>
+      </c>
+      <c r="D147" t="n">
+        <v>0.005647596738604005</v>
+      </c>
+      <c r="E147" t="n">
+        <v>-7.915080344288413e-07</v>
+      </c>
+      <c r="F147" t="n">
+        <v>-0.02533713978518612</v>
+      </c>
+      <c r="G147" t="n">
+        <v>-4.975109752038353e-06</v>
+      </c>
+      <c r="H147" t="n">
+        <v>0.001262242129604092</v>
+      </c>
+      <c r="I147" t="n">
+        <v>-0.3198628734380467</v>
+      </c>
+      <c r="J147" t="n">
+        <v>3.399220119473802e-05</v>
+      </c>
+      <c r="K147" t="n">
+        <v>0.0002792653984494341</v>
+      </c>
+      <c r="L147" t="n">
+        <v>0.0009666383343304063</v>
+      </c>
+      <c r="M147" t="n">
+        <v>-8.245373641373956e-05</v>
+      </c>
+      <c r="N147" t="n">
+        <v>-6.01999651553206e-06</v>
+      </c>
+      <c r="O147" t="n">
+        <v>-0.0005593127120258378</v>
+      </c>
+      <c r="P147" t="n">
+        <v>-0.00386807849481202</v>
+      </c>
+      <c r="Q147" t="n">
+        <v>433.2708452464276</v>
+      </c>
+      <c r="R147" t="n">
+        <v>1.8806</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>0.9966677074898785</v>
+      </c>
+      <c r="B148" t="n">
+        <v>12.03477831196581</v>
+      </c>
+      <c r="C148" t="n">
+        <v>0.0009665264122603965</v>
+      </c>
+      <c r="D148" t="n">
+        <v>0.005006960237048283</v>
+      </c>
+      <c r="E148" t="n">
+        <v>-5.761707758350204e-07</v>
+      </c>
+      <c r="F148" t="n">
+        <v>-0.02878752074898785</v>
+      </c>
+      <c r="G148" t="n">
+        <v>-1.119192297314998e-06</v>
+      </c>
+      <c r="H148" t="n">
+        <v>0.001229594256581078</v>
+      </c>
+      <c r="I148" t="n">
+        <v>-0.3526043812790522</v>
+      </c>
+      <c r="J148" t="n">
+        <v>8.102625805499318e-05</v>
+      </c>
+      <c r="K148" t="n">
+        <v>0.0002797343010090843</v>
+      </c>
+      <c r="L148" t="n">
+        <v>0.0002649988794837432</v>
+      </c>
+      <c r="M148" t="n">
+        <v>-7.916170332233719e-05</v>
+      </c>
+      <c r="N148" t="n">
+        <v>-2.115420096559955e-07</v>
+      </c>
+      <c r="O148" t="n">
+        <v>-0.00065602664449224</v>
+      </c>
+      <c r="P148" t="n">
+        <v>-0.004383410238889825</v>
+      </c>
+      <c r="Q148" t="n">
+        <v>427.6116399922986</v>
+      </c>
+      <c r="R148" t="n">
+        <v>1.8926</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>0.9962966711650922</v>
+      </c>
+      <c r="B149" t="n">
+        <v>11.46642509496676</v>
+      </c>
+      <c r="C149" t="n">
+        <v>0.001055578663211626</v>
+      </c>
+      <c r="D149" t="n">
+        <v>0.005090854876371394</v>
+      </c>
+      <c r="E149" t="n">
+        <v>1.507622892161492e-07</v>
+      </c>
+      <c r="F149" t="n">
+        <v>-0.03293516292735043</v>
+      </c>
+      <c r="G149" t="n">
+        <v>2.775960047627079e-06</v>
+      </c>
+      <c r="H149" t="n">
+        <v>0.001244629183568157</v>
+      </c>
+      <c r="I149" t="n">
+        <v>-0.3905736281364023</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0.0001256309014360598</v>
+      </c>
+      <c r="K149" t="n">
+        <v>0.000252540925179609</v>
+      </c>
+      <c r="L149" t="n">
+        <v>-0.000148579332036834</v>
+      </c>
+      <c r="M149" t="n">
+        <v>-6.563613115492391e-05</v>
+      </c>
+      <c r="N149" t="n">
+        <v>6.063720369367597e-06</v>
+      </c>
+      <c r="O149" t="n">
+        <v>-0.0006939121415220299</v>
+      </c>
+      <c r="P149" t="n">
+        <v>-0.004806842164195173</v>
+      </c>
+      <c r="Q149" t="n">
+        <v>421.0372423408568</v>
+      </c>
+      <c r="R149" t="n">
+        <v>1.9047</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>0.9958722031039137</v>
+      </c>
+      <c r="B150" t="n">
+        <v>10.77281079747089</v>
+      </c>
+      <c r="C150" t="n">
+        <v>0.001104432267328544</v>
+      </c>
+      <c r="D150" t="n">
+        <v>0.005594601032498001</v>
+      </c>
+      <c r="E150" t="n">
+        <v>7.984592504610882e-07</v>
+      </c>
+      <c r="F150" t="n">
+        <v>-0.03762496134165542</v>
+      </c>
+      <c r="G150" t="n">
+        <v>6.098035809435444e-06</v>
+      </c>
+      <c r="H150" t="n">
+        <v>0.001195219028727851</v>
+      </c>
+      <c r="I150" t="n">
+        <v>-0.4267935845891438</v>
+      </c>
+      <c r="J150" t="n">
+        <v>0.0001646325199976882</v>
+      </c>
+      <c r="K150" t="n">
+        <v>0.0002197966390580953</v>
+      </c>
+      <c r="L150" t="n">
+        <v>-0.0007296513727685152</v>
+      </c>
+      <c r="M150" t="n">
+        <v>-4.164490476177088e-05</v>
+      </c>
+      <c r="N150" t="n">
+        <v>9.194330432889113e-06</v>
+      </c>
+      <c r="O150" t="n">
+        <v>-0.0006714759103791796</v>
+      </c>
+      <c r="P150" t="n">
+        <v>-0.005122752184274566</v>
+      </c>
+      <c r="Q150" t="n">
+        <v>413.3381586645773</v>
+      </c>
+      <c r="R150" t="n">
+        <v>1.9167</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>0.9953890393049935</v>
+      </c>
+      <c r="B151" t="n">
+        <v>9.915968301719397</v>
+      </c>
+      <c r="C151" t="n">
+        <v>0.001092481552311378</v>
+      </c>
+      <c r="D151" t="n">
+        <v>0.006116016527949594</v>
+      </c>
+      <c r="E151" t="n">
+        <v>1.078344181536774e-06</v>
+      </c>
+      <c r="F151" t="n">
+        <v>-0.04265954459064327</v>
+      </c>
+      <c r="G151" t="n">
+        <v>7.839692543859649e-06</v>
+      </c>
+      <c r="H151" t="n">
+        <v>0.001075111790858122</v>
+      </c>
+      <c r="I151" t="n">
+        <v>-0.4552431658294597</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0.0001857144277329497</v>
+      </c>
+      <c r="K151" t="n">
+        <v>0.0001897611640563521</v>
+      </c>
+      <c r="L151" t="n">
+        <v>-0.001501208370460651</v>
+      </c>
+      <c r="M151" t="n">
+        <v>-1.350111241851758e-05</v>
+      </c>
+      <c r="N151" t="n">
+        <v>7.213221993517892e-06</v>
+      </c>
+      <c r="O151" t="n">
+        <v>-0.0005860021179345041</v>
+      </c>
+      <c r="P151" t="n">
+        <v>-0.005240646595400047</v>
+      </c>
+      <c r="Q151" t="n">
+        <v>404.3582972549099</v>
+      </c>
+      <c r="R151" t="n">
+        <v>1.9287</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>0.9948423734817814</v>
+      </c>
+      <c r="B152" t="n">
+        <v>8.849528774303991</v>
+      </c>
+      <c r="C152" t="n">
+        <v>0.0009110949254037024</v>
+      </c>
+      <c r="D152" t="n">
+        <v>0.006155425081174714</v>
+      </c>
+      <c r="E152" t="n">
+        <v>9.32887216454397e-07</v>
+      </c>
+      <c r="F152" t="n">
+        <v>-0.04645690649460189</v>
+      </c>
+      <c r="G152" t="n">
+        <v>6.635286729040155e-06</v>
+      </c>
+      <c r="H152" t="n">
+        <v>0.001011051438632955</v>
+      </c>
+      <c r="I152" t="n">
+        <v>-0.455560896881404</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0.000164262313547602</v>
+      </c>
+      <c r="K152" t="n">
+        <v>0.0001687636437619208</v>
+      </c>
+      <c r="L152" t="n">
+        <v>-0.001764492740251927</v>
+      </c>
+      <c r="M152" t="n">
+        <v>5.539510464725785e-06</v>
+      </c>
+      <c r="N152" t="n">
+        <v>4.701906108643216e-07</v>
+      </c>
+      <c r="O152" t="n">
+        <v>-0.0004445842918970469</v>
+      </c>
+      <c r="P152" t="n">
+        <v>-0.00498877816617387</v>
+      </c>
+      <c r="Q152" t="n">
+        <v>393.9849496096364</v>
+      </c>
+      <c r="R152" t="n">
+        <v>1.9408</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>0.9942742538236617</v>
+      </c>
+      <c r="B153" t="n">
+        <v>7.552293915879442</v>
+      </c>
+      <c r="C153" t="n">
+        <v>0.00103569442320188</v>
+      </c>
+      <c r="D153" t="n">
+        <v>0.005452736150119334</v>
+      </c>
+      <c r="E153" t="n">
+        <v>9.185663559632258e-07</v>
+      </c>
+      <c r="F153" t="n">
+        <v>-0.04936164830746738</v>
+      </c>
+      <c r="G153" t="n">
+        <v>5.062762688652726e-06</v>
+      </c>
+      <c r="H153" t="n">
+        <v>0.0007791671097606931</v>
+      </c>
+      <c r="I153" t="n">
+        <v>-0.4274778716511721</v>
+      </c>
+      <c r="J153" t="n">
+        <v>0.0001322867531029608</v>
+      </c>
+      <c r="K153" t="n">
+        <v>9.388704057962992e-05</v>
+      </c>
+      <c r="L153" t="n">
+        <v>-0.002594196332867715</v>
+      </c>
+      <c r="M153" t="n">
+        <v>1.601995063566814e-05</v>
+      </c>
+      <c r="N153" t="n">
+        <v>-7.235635058724758e-06</v>
+      </c>
+      <c r="O153" t="n">
+        <v>-0.0002946830963787674</v>
+      </c>
+      <c r="P153" t="n">
+        <v>-0.004171113093981793</v>
+      </c>
+      <c r="Q153" t="n">
+        <v>382.7267375576134</v>
+      </c>
+      <c r="R153" t="n">
+        <v>1.9526</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>0.9936998006635176</v>
+      </c>
+      <c r="B154" t="n">
+        <v>5.975323550819714</v>
+      </c>
+      <c r="C154" t="n">
+        <v>0.0006256127444128929</v>
+      </c>
+      <c r="D154" t="n">
+        <v>0.004145884436419128</v>
+      </c>
+      <c r="E154" t="n">
+        <v>6.599508500028118e-07</v>
+      </c>
+      <c r="F154" t="n">
+        <v>-0.04648022773279353</v>
+      </c>
+      <c r="G154" t="n">
+        <v>2.621594124493931e-06</v>
+      </c>
+      <c r="H154" t="n">
+        <v>0.0006081185067001331</v>
+      </c>
+      <c r="I154" t="n">
+        <v>-0.3303234268006198</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0.0001001893899861611</v>
+      </c>
+      <c r="K154" t="n">
+        <v>7.1903447413032e-05</v>
+      </c>
+      <c r="L154" t="n">
+        <v>-0.002275766299735718</v>
+      </c>
+      <c r="M154" t="n">
+        <v>1.368198682743852e-05</v>
+      </c>
+      <c r="N154" t="n">
+        <v>-1.286184772331247e-05</v>
+      </c>
+      <c r="O154" t="n">
+        <v>-0.000153478222886271</v>
+      </c>
+      <c r="P154" t="n">
+        <v>-0.002871378283674464</v>
+      </c>
+      <c r="Q154" t="n">
+        <v>371.0341115928344</v>
+      </c>
+      <c r="R154" t="n">
+        <v>1.9645</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>0.9932003542510123</v>
+      </c>
+      <c r="B155" t="n">
+        <v>4.139533789736093</v>
+      </c>
+      <c r="C155" t="n">
+        <v>0.0003369242413661468</v>
+      </c>
+      <c r="D155" t="n">
+        <v>0.002676438655328447</v>
+      </c>
+      <c r="E155" t="n">
+        <v>3.957468886920818e-08</v>
+      </c>
+      <c r="F155" t="n">
+        <v>-0.03674756106612686</v>
+      </c>
+      <c r="G155" t="n">
+        <v>2.390437442926231e-07</v>
+      </c>
+      <c r="H155" t="n">
+        <v>0.0003610741364338576</v>
+      </c>
+      <c r="I155" t="n">
+        <v>-0.1877399714787325</v>
+      </c>
+      <c r="J155" t="n">
+        <v>6.407930866149973e-05</v>
+      </c>
+      <c r="K155" t="n">
+        <v>5.174234317454517e-05</v>
+      </c>
+      <c r="L155" t="n">
+        <v>-0.001238646036400446</v>
+      </c>
+      <c r="M155" t="n">
+        <v>6.937365164770455e-06</v>
+      </c>
+      <c r="N155" t="n">
+        <v>-1.105240530759859e-05</v>
+      </c>
+      <c r="O155" t="n">
+        <v>-5.98975698104882e-05</v>
+      </c>
+      <c r="P155" t="n">
+        <v>-0.001468278165968005</v>
+      </c>
+      <c r="Q155" t="n">
+        <v>360.5941374808705</v>
+      </c>
+      <c r="R155" t="n">
+        <v>1.9763</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>0.9928551478857399</v>
+      </c>
+      <c r="B156" t="n">
+        <v>2.110834846866096</v>
+      </c>
+      <c r="C156" t="n">
+        <v>0.0002491332872091642</v>
+      </c>
+      <c r="D156" t="n">
+        <v>0.001282679738760184</v>
+      </c>
+      <c r="E156" t="n">
+        <v>-7.237431492760345e-07</v>
+      </c>
+      <c r="F156" t="n">
+        <v>-0.02048318162393162</v>
+      </c>
+      <c r="G156" t="n">
+        <v>-1.702109452133938e-06</v>
+      </c>
+      <c r="H156" t="n">
+        <v>8.535879967919038e-05</v>
+      </c>
+      <c r="I156" t="n">
+        <v>-0.05465373848840405</v>
+      </c>
+      <c r="J156" t="n">
+        <v>2.546904118417929e-05</v>
+      </c>
+      <c r="K156" t="n">
+        <v>1.730693329237892e-05</v>
+      </c>
+      <c r="L156" t="n">
+        <v>-0.0002167854956288268</v>
+      </c>
+      <c r="M156" t="n">
+        <v>1.28880536197862e-06</v>
+      </c>
+      <c r="N156" t="n">
+        <v>-3.883090051506817e-06</v>
+      </c>
+      <c r="O156" t="n">
+        <v>-1.557465587994201e-05</v>
+      </c>
+      <c r="P156" t="n">
+        <v>-0.0003963992060348722</v>
+      </c>
+      <c r="Q156" t="n">
+        <v>353.1835089118129</v>
+      </c>
+      <c r="R156" t="n">
+        <v>1.9882</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>0.9927396814552407</v>
+      </c>
+      <c r="B157" t="n">
+        <v>0.0001313496656254686</v>
+      </c>
+      <c r="C157" t="n">
+        <v>-0.0002973666870597791</v>
+      </c>
+      <c r="D157" t="n">
+        <v>3.716672807017531e-08</v>
+      </c>
+      <c r="E157" t="n">
+        <v>-1.199219454608918e-06</v>
+      </c>
+      <c r="F157" t="n">
+        <v>0.001993390056087213</v>
+      </c>
+      <c r="G157" t="n">
+        <v>-3.125206668775305e-06</v>
+      </c>
+      <c r="H157" t="n">
+        <v>3.246279443432767e-05</v>
+      </c>
+      <c r="I157" t="n">
+        <v>-0.0009986793405581482</v>
+      </c>
+      <c r="J157" t="n">
+        <v>1.609452964456346e-06</v>
+      </c>
+      <c r="K157" t="n">
+        <v>3.372998776383265e-06</v>
+      </c>
+      <c r="L157" t="n">
+        <v>-0.0001650093066982181</v>
+      </c>
+      <c r="M157" t="n">
+        <v>3.022865714726159e-07</v>
+      </c>
+      <c r="N157" t="n">
+        <v>-2.003327195139514e-06</v>
+      </c>
+      <c r="O157" t="n">
+        <v>8.933726244673739e-06</v>
+      </c>
+      <c r="P157" t="n">
+        <v>-0.0001567927473350734</v>
+      </c>
+      <c r="Q157" t="n">
+        <v>350.6345920986292</v>
+      </c>
+      <c r="R157" t="n">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
